--- a/XbufferExcelToDataUnityProject/Conf/Excels/global_config4.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/global_config4.xlsx
@@ -70,2989 +70,2989 @@
     <t>global</t>
   </si>
   <si>
-    <t>1+2+3+4</t>
-  </si>
-  <si>
-    <t>a+b+c+d+e+f</t>
-  </si>
-  <si>
-    <t>1+2+3+5</t>
-  </si>
-  <si>
-    <t>1+2+3+6</t>
-  </si>
-  <si>
-    <t>1+2+3+7</t>
-  </si>
-  <si>
-    <t>1+2+3+8</t>
-  </si>
-  <si>
-    <t>1+2+3+9</t>
-  </si>
-  <si>
-    <t>1+2+3+10</t>
-  </si>
-  <si>
-    <t>1+2+3+11</t>
-  </si>
-  <si>
-    <t>1+2+3+12</t>
-  </si>
-  <si>
-    <t>1+2+3+13</t>
-  </si>
-  <si>
-    <t>1+2+3+14</t>
-  </si>
-  <si>
-    <t>1+2+3+15</t>
-  </si>
-  <si>
-    <t>1+2+3+16</t>
-  </si>
-  <si>
-    <t>1+2+3+17</t>
-  </si>
-  <si>
-    <t>1+2+3+18</t>
-  </si>
-  <si>
-    <t>1+2+3+19</t>
-  </si>
-  <si>
-    <t>1+2+3+20</t>
-  </si>
-  <si>
-    <t>1+2+3+21</t>
-  </si>
-  <si>
-    <t>1+2+3+22</t>
-  </si>
-  <si>
-    <t>1+2+3+23</t>
-  </si>
-  <si>
-    <t>1+2+3+24</t>
-  </si>
-  <si>
-    <t>1+2+3+25</t>
-  </si>
-  <si>
-    <t>1+2+3+26</t>
-  </si>
-  <si>
-    <t>1+2+3+27</t>
-  </si>
-  <si>
-    <t>1+2+3+28</t>
-  </si>
-  <si>
-    <t>1+2+3+29</t>
-  </si>
-  <si>
-    <t>1+2+3+30</t>
-  </si>
-  <si>
-    <t>1+2+3+31</t>
-  </si>
-  <si>
-    <t>1+2+3+32</t>
-  </si>
-  <si>
-    <t>1+2+3+33</t>
-  </si>
-  <si>
-    <t>1+2+3+34</t>
-  </si>
-  <si>
-    <t>1+2+3+35</t>
-  </si>
-  <si>
-    <t>1+2+3+36</t>
-  </si>
-  <si>
-    <t>1+2+3+37</t>
-  </si>
-  <si>
-    <t>1+2+3+38</t>
-  </si>
-  <si>
-    <t>1+2+3+39</t>
-  </si>
-  <si>
-    <t>1+2+3+40</t>
-  </si>
-  <si>
-    <t>1+2+3+41</t>
-  </si>
-  <si>
-    <t>1+2+3+42</t>
-  </si>
-  <si>
-    <t>1+2+3+43</t>
-  </si>
-  <si>
-    <t>1+2+3+44</t>
-  </si>
-  <si>
-    <t>1+2+3+45</t>
-  </si>
-  <si>
-    <t>1+2+3+46</t>
-  </si>
-  <si>
-    <t>1+2+3+47</t>
-  </si>
-  <si>
-    <t>1+2+3+48</t>
-  </si>
-  <si>
-    <t>1+2+3+49</t>
-  </si>
-  <si>
-    <t>1+2+3+50</t>
-  </si>
-  <si>
-    <t>1+2+3+51</t>
-  </si>
-  <si>
-    <t>1+2+3+52</t>
-  </si>
-  <si>
-    <t>1+2+3+53</t>
-  </si>
-  <si>
-    <t>1+2+3+54</t>
-  </si>
-  <si>
-    <t>1+2+3+55</t>
-  </si>
-  <si>
-    <t>1+2+3+56</t>
-  </si>
-  <si>
-    <t>1+2+3+57</t>
-  </si>
-  <si>
-    <t>1+2+3+58</t>
-  </si>
-  <si>
-    <t>1+2+3+59</t>
-  </si>
-  <si>
-    <t>1+2+3+60</t>
-  </si>
-  <si>
-    <t>1+2+3+61</t>
-  </si>
-  <si>
-    <t>1+2+3+62</t>
-  </si>
-  <si>
-    <t>1+2+3+63</t>
-  </si>
-  <si>
-    <t>1+2+3+64</t>
-  </si>
-  <si>
-    <t>1+2+3+65</t>
-  </si>
-  <si>
-    <t>1+2+3+66</t>
-  </si>
-  <si>
-    <t>1+2+3+67</t>
-  </si>
-  <si>
-    <t>1+2+3+68</t>
-  </si>
-  <si>
-    <t>1+2+3+69</t>
-  </si>
-  <si>
-    <t>1+2+3+70</t>
-  </si>
-  <si>
-    <t>1+2+3+71</t>
-  </si>
-  <si>
-    <t>1+2+3+72</t>
-  </si>
-  <si>
-    <t>1+2+3+73</t>
-  </si>
-  <si>
-    <t>1+2+3+74</t>
-  </si>
-  <si>
-    <t>1+2+3+75</t>
-  </si>
-  <si>
-    <t>1+2+3+76</t>
-  </si>
-  <si>
-    <t>1+2+3+77</t>
-  </si>
-  <si>
-    <t>1+2+3+78</t>
-  </si>
-  <si>
-    <t>1+2+3+79</t>
-  </si>
-  <si>
-    <t>1+2+3+80</t>
-  </si>
-  <si>
-    <t>1+2+3+81</t>
-  </si>
-  <si>
-    <t>1+2+3+82</t>
-  </si>
-  <si>
-    <t>1+2+3+83</t>
-  </si>
-  <si>
-    <t>1+2+3+84</t>
-  </si>
-  <si>
-    <t>1+2+3+85</t>
-  </si>
-  <si>
-    <t>1+2+3+86</t>
-  </si>
-  <si>
-    <t>1+2+3+87</t>
-  </si>
-  <si>
-    <t>1+2+3+88</t>
-  </si>
-  <si>
-    <t>1+2+3+89</t>
-  </si>
-  <si>
-    <t>1+2+3+90</t>
-  </si>
-  <si>
-    <t>1+2+3+91</t>
-  </si>
-  <si>
-    <t>1+2+3+92</t>
-  </si>
-  <si>
-    <t>1+2+3+93</t>
-  </si>
-  <si>
-    <t>1+2+3+94</t>
-  </si>
-  <si>
-    <t>1+2+3+95</t>
-  </si>
-  <si>
-    <t>1+2+3+96</t>
-  </si>
-  <si>
-    <t>1+2+3+97</t>
-  </si>
-  <si>
-    <t>1+2+3+98</t>
-  </si>
-  <si>
-    <t>1+2+3+99</t>
-  </si>
-  <si>
-    <t>1+2+3+100</t>
-  </si>
-  <si>
-    <t>1+2+3+101</t>
-  </si>
-  <si>
-    <t>1+2+3+102</t>
-  </si>
-  <si>
-    <t>1+2+3+103</t>
-  </si>
-  <si>
-    <t>1+2+3+104</t>
-  </si>
-  <si>
-    <t>1+2+3+105</t>
-  </si>
-  <si>
-    <t>1+2+3+106</t>
-  </si>
-  <si>
-    <t>1+2+3+107</t>
-  </si>
-  <si>
-    <t>1+2+3+108</t>
-  </si>
-  <si>
-    <t>1+2+3+109</t>
-  </si>
-  <si>
-    <t>1+2+3+110</t>
-  </si>
-  <si>
-    <t>1+2+3+111</t>
-  </si>
-  <si>
-    <t>1+2+3+112</t>
-  </si>
-  <si>
-    <t>1+2+3+113</t>
-  </si>
-  <si>
-    <t>1+2+3+114</t>
-  </si>
-  <si>
-    <t>1+2+3+115</t>
-  </si>
-  <si>
-    <t>1+2+3+116</t>
-  </si>
-  <si>
-    <t>1+2+3+117</t>
-  </si>
-  <si>
-    <t>1+2+3+118</t>
-  </si>
-  <si>
-    <t>1+2+3+119</t>
-  </si>
-  <si>
-    <t>1+2+3+120</t>
-  </si>
-  <si>
-    <t>1+2+3+121</t>
-  </si>
-  <si>
-    <t>1+2+3+122</t>
-  </si>
-  <si>
-    <t>1+2+3+123</t>
-  </si>
-  <si>
-    <t>1+2+3+124</t>
-  </si>
-  <si>
-    <t>1+2+3+125</t>
-  </si>
-  <si>
-    <t>1+2+3+126</t>
-  </si>
-  <si>
-    <t>1+2+3+127</t>
-  </si>
-  <si>
-    <t>1+2+3+128</t>
-  </si>
-  <si>
-    <t>1+2+3+129</t>
-  </si>
-  <si>
-    <t>1+2+3+130</t>
-  </si>
-  <si>
-    <t>1+2+3+131</t>
-  </si>
-  <si>
-    <t>1+2+3+132</t>
-  </si>
-  <si>
-    <t>1+2+3+133</t>
-  </si>
-  <si>
-    <t>1+2+3+134</t>
-  </si>
-  <si>
-    <t>1+2+3+135</t>
-  </si>
-  <si>
-    <t>1+2+3+136</t>
-  </si>
-  <si>
-    <t>1+2+3+137</t>
-  </si>
-  <si>
-    <t>1+2+3+138</t>
-  </si>
-  <si>
-    <t>1+2+3+139</t>
-  </si>
-  <si>
-    <t>1+2+3+140</t>
-  </si>
-  <si>
-    <t>1+2+3+141</t>
-  </si>
-  <si>
-    <t>1+2+3+142</t>
-  </si>
-  <si>
-    <t>1+2+3+143</t>
-  </si>
-  <si>
-    <t>1+2+3+144</t>
-  </si>
-  <si>
-    <t>1+2+3+145</t>
-  </si>
-  <si>
-    <t>1+2+3+146</t>
-  </si>
-  <si>
-    <t>1+2+3+147</t>
-  </si>
-  <si>
-    <t>1+2+3+148</t>
-  </si>
-  <si>
-    <t>1+2+3+149</t>
-  </si>
-  <si>
-    <t>1+2+3+150</t>
-  </si>
-  <si>
-    <t>1+2+3+151</t>
-  </si>
-  <si>
-    <t>1+2+3+152</t>
-  </si>
-  <si>
-    <t>1+2+3+153</t>
-  </si>
-  <si>
-    <t>1+2+3+154</t>
-  </si>
-  <si>
-    <t>1+2+3+155</t>
-  </si>
-  <si>
-    <t>1+2+3+156</t>
-  </si>
-  <si>
-    <t>1+2+3+157</t>
-  </si>
-  <si>
-    <t>1+2+3+158</t>
-  </si>
-  <si>
-    <t>1+2+3+159</t>
-  </si>
-  <si>
-    <t>1+2+3+160</t>
-  </si>
-  <si>
-    <t>1+2+3+161</t>
-  </si>
-  <si>
-    <t>1+2+3+162</t>
-  </si>
-  <si>
-    <t>1+2+3+163</t>
-  </si>
-  <si>
-    <t>1+2+3+164</t>
-  </si>
-  <si>
-    <t>1+2+3+165</t>
-  </si>
-  <si>
-    <t>1+2+3+166</t>
-  </si>
-  <si>
-    <t>1+2+3+167</t>
-  </si>
-  <si>
-    <t>1+2+3+168</t>
-  </si>
-  <si>
-    <t>1+2+3+169</t>
-  </si>
-  <si>
-    <t>1+2+3+170</t>
-  </si>
-  <si>
-    <t>1+2+3+171</t>
-  </si>
-  <si>
-    <t>1+2+3+172</t>
-  </si>
-  <si>
-    <t>1+2+3+173</t>
-  </si>
-  <si>
-    <t>1+2+3+174</t>
-  </si>
-  <si>
-    <t>1+2+3+175</t>
-  </si>
-  <si>
-    <t>1+2+3+176</t>
-  </si>
-  <si>
-    <t>1+2+3+177</t>
-  </si>
-  <si>
-    <t>1+2+3+178</t>
-  </si>
-  <si>
-    <t>1+2+3+179</t>
-  </si>
-  <si>
-    <t>1+2+3+180</t>
-  </si>
-  <si>
-    <t>1+2+3+181</t>
-  </si>
-  <si>
-    <t>1+2+3+182</t>
-  </si>
-  <si>
-    <t>1+2+3+183</t>
-  </si>
-  <si>
-    <t>1+2+3+184</t>
-  </si>
-  <si>
-    <t>1+2+3+185</t>
-  </si>
-  <si>
-    <t>1+2+3+186</t>
-  </si>
-  <si>
-    <t>1+2+3+187</t>
-  </si>
-  <si>
-    <t>1+2+3+188</t>
-  </si>
-  <si>
-    <t>1+2+3+189</t>
-  </si>
-  <si>
-    <t>1+2+3+190</t>
-  </si>
-  <si>
-    <t>1+2+3+191</t>
-  </si>
-  <si>
-    <t>1+2+3+192</t>
-  </si>
-  <si>
-    <t>1+2+3+193</t>
-  </si>
-  <si>
-    <t>1+2+3+194</t>
-  </si>
-  <si>
-    <t>1+2+3+195</t>
-  </si>
-  <si>
-    <t>1+2+3+196</t>
-  </si>
-  <si>
-    <t>1+2+3+197</t>
-  </si>
-  <si>
-    <t>1+2+3+198</t>
-  </si>
-  <si>
-    <t>1+2+3+199</t>
-  </si>
-  <si>
-    <t>1+2+3+200</t>
-  </si>
-  <si>
-    <t>1+2+3+201</t>
-  </si>
-  <si>
-    <t>1+2+3+202</t>
-  </si>
-  <si>
-    <t>1+2+3+203</t>
-  </si>
-  <si>
-    <t>1+2+3+204</t>
-  </si>
-  <si>
-    <t>1+2+3+205</t>
-  </si>
-  <si>
-    <t>1+2+3+206</t>
-  </si>
-  <si>
-    <t>1+2+3+207</t>
-  </si>
-  <si>
-    <t>1+2+3+208</t>
-  </si>
-  <si>
-    <t>1+2+3+209</t>
-  </si>
-  <si>
-    <t>1+2+3+210</t>
-  </si>
-  <si>
-    <t>1+2+3+211</t>
-  </si>
-  <si>
-    <t>1+2+3+212</t>
-  </si>
-  <si>
-    <t>1+2+3+213</t>
-  </si>
-  <si>
-    <t>1+2+3+214</t>
-  </si>
-  <si>
-    <t>1+2+3+215</t>
-  </si>
-  <si>
-    <t>1+2+3+216</t>
-  </si>
-  <si>
-    <t>1+2+3+217</t>
-  </si>
-  <si>
-    <t>1+2+3+218</t>
-  </si>
-  <si>
-    <t>1+2+3+219</t>
-  </si>
-  <si>
-    <t>1+2+3+220</t>
-  </si>
-  <si>
-    <t>1+2+3+221</t>
-  </si>
-  <si>
-    <t>1+2+3+222</t>
-  </si>
-  <si>
-    <t>1+2+3+223</t>
-  </si>
-  <si>
-    <t>1+2+3+224</t>
-  </si>
-  <si>
-    <t>1+2+3+225</t>
-  </si>
-  <si>
-    <t>1+2+3+226</t>
-  </si>
-  <si>
-    <t>1+2+3+227</t>
-  </si>
-  <si>
-    <t>1+2+3+228</t>
-  </si>
-  <si>
-    <t>1+2+3+229</t>
-  </si>
-  <si>
-    <t>1+2+3+230</t>
-  </si>
-  <si>
-    <t>1+2+3+231</t>
-  </si>
-  <si>
-    <t>1+2+3+232</t>
-  </si>
-  <si>
-    <t>1+2+3+233</t>
-  </si>
-  <si>
-    <t>1+2+3+234</t>
-  </si>
-  <si>
-    <t>1+2+3+235</t>
-  </si>
-  <si>
-    <t>1+2+3+236</t>
-  </si>
-  <si>
-    <t>1+2+3+237</t>
-  </si>
-  <si>
-    <t>1+2+3+238</t>
-  </si>
-  <si>
-    <t>1+2+3+239</t>
-  </si>
-  <si>
-    <t>1+2+3+240</t>
-  </si>
-  <si>
-    <t>1+2+3+241</t>
-  </si>
-  <si>
-    <t>1+2+3+242</t>
-  </si>
-  <si>
-    <t>1+2+3+243</t>
-  </si>
-  <si>
-    <t>1+2+3+244</t>
-  </si>
-  <si>
-    <t>1+2+3+245</t>
-  </si>
-  <si>
-    <t>1+2+3+246</t>
-  </si>
-  <si>
-    <t>1+2+3+247</t>
-  </si>
-  <si>
-    <t>1+2+3+248</t>
-  </si>
-  <si>
-    <t>1+2+3+249</t>
-  </si>
-  <si>
-    <t>1+2+3+250</t>
-  </si>
-  <si>
-    <t>1+2+3+251</t>
-  </si>
-  <si>
-    <t>1+2+3+252</t>
-  </si>
-  <si>
-    <t>1+2+3+253</t>
-  </si>
-  <si>
-    <t>1+2+3+254</t>
-  </si>
-  <si>
-    <t>1+2+3+255</t>
-  </si>
-  <si>
-    <t>1+2+3+256</t>
-  </si>
-  <si>
-    <t>1+2+3+257</t>
-  </si>
-  <si>
-    <t>1+2+3+258</t>
-  </si>
-  <si>
-    <t>1+2+3+259</t>
-  </si>
-  <si>
-    <t>1+2+3+260</t>
-  </si>
-  <si>
-    <t>1+2+3+261</t>
-  </si>
-  <si>
-    <t>1+2+3+262</t>
-  </si>
-  <si>
-    <t>1+2+3+263</t>
-  </si>
-  <si>
-    <t>1+2+3+264</t>
-  </si>
-  <si>
-    <t>1+2+3+265</t>
-  </si>
-  <si>
-    <t>1+2+3+266</t>
-  </si>
-  <si>
-    <t>1+2+3+267</t>
-  </si>
-  <si>
-    <t>1+2+3+268</t>
-  </si>
-  <si>
-    <t>1+2+3+269</t>
-  </si>
-  <si>
-    <t>1+2+3+270</t>
-  </si>
-  <si>
-    <t>1+2+3+271</t>
-  </si>
-  <si>
-    <t>1+2+3+272</t>
-  </si>
-  <si>
-    <t>1+2+3+273</t>
-  </si>
-  <si>
-    <t>1+2+3+274</t>
-  </si>
-  <si>
-    <t>1+2+3+275</t>
-  </si>
-  <si>
-    <t>1+2+3+276</t>
-  </si>
-  <si>
-    <t>1+2+3+277</t>
-  </si>
-  <si>
-    <t>1+2+3+278</t>
-  </si>
-  <si>
-    <t>1+2+3+279</t>
-  </si>
-  <si>
-    <t>1+2+3+280</t>
-  </si>
-  <si>
-    <t>1+2+3+281</t>
-  </si>
-  <si>
-    <t>1+2+3+282</t>
-  </si>
-  <si>
-    <t>1+2+3+283</t>
-  </si>
-  <si>
-    <t>1+2+3+284</t>
-  </si>
-  <si>
-    <t>1+2+3+285</t>
-  </si>
-  <si>
-    <t>1+2+3+286</t>
-  </si>
-  <si>
-    <t>1+2+3+287</t>
-  </si>
-  <si>
-    <t>1+2+3+288</t>
-  </si>
-  <si>
-    <t>1+2+3+289</t>
-  </si>
-  <si>
-    <t>1+2+3+290</t>
-  </si>
-  <si>
-    <t>1+2+3+291</t>
-  </si>
-  <si>
-    <t>1+2+3+292</t>
-  </si>
-  <si>
-    <t>1+2+3+293</t>
-  </si>
-  <si>
-    <t>1+2+3+294</t>
-  </si>
-  <si>
-    <t>1+2+3+295</t>
-  </si>
-  <si>
-    <t>1+2+3+296</t>
-  </si>
-  <si>
-    <t>1+2+3+297</t>
-  </si>
-  <si>
-    <t>1+2+3+298</t>
-  </si>
-  <si>
-    <t>1+2+3+299</t>
-  </si>
-  <si>
-    <t>1+2+3+300</t>
-  </si>
-  <si>
-    <t>1+2+3+301</t>
-  </si>
-  <si>
-    <t>1+2+3+302</t>
-  </si>
-  <si>
-    <t>1+2+3+303</t>
-  </si>
-  <si>
-    <t>1+2+3+304</t>
-  </si>
-  <si>
-    <t>1+2+3+305</t>
-  </si>
-  <si>
-    <t>1+2+3+306</t>
-  </si>
-  <si>
-    <t>1+2+3+307</t>
-  </si>
-  <si>
-    <t>1+2+3+308</t>
-  </si>
-  <si>
-    <t>1+2+3+309</t>
-  </si>
-  <si>
-    <t>1+2+3+310</t>
-  </si>
-  <si>
-    <t>1+2+3+311</t>
-  </si>
-  <si>
-    <t>1+2+3+312</t>
-  </si>
-  <si>
-    <t>1+2+3+313</t>
-  </si>
-  <si>
-    <t>1+2+3+314</t>
-  </si>
-  <si>
-    <t>1+2+3+315</t>
-  </si>
-  <si>
-    <t>1+2+3+316</t>
-  </si>
-  <si>
-    <t>1+2+3+317</t>
-  </si>
-  <si>
-    <t>1+2+3+318</t>
-  </si>
-  <si>
-    <t>1+2+3+319</t>
-  </si>
-  <si>
-    <t>1+2+3+320</t>
-  </si>
-  <si>
-    <t>1+2+3+321</t>
-  </si>
-  <si>
-    <t>1+2+3+322</t>
-  </si>
-  <si>
-    <t>1+2+3+323</t>
-  </si>
-  <si>
-    <t>1+2+3+324</t>
-  </si>
-  <si>
-    <t>1+2+3+325</t>
-  </si>
-  <si>
-    <t>1+2+3+326</t>
-  </si>
-  <si>
-    <t>1+2+3+327</t>
-  </si>
-  <si>
-    <t>1+2+3+328</t>
-  </si>
-  <si>
-    <t>1+2+3+329</t>
-  </si>
-  <si>
-    <t>1+2+3+330</t>
-  </si>
-  <si>
-    <t>1+2+3+331</t>
-  </si>
-  <si>
-    <t>1+2+3+332</t>
-  </si>
-  <si>
-    <t>1+2+3+333</t>
-  </si>
-  <si>
-    <t>1+2+3+334</t>
-  </si>
-  <si>
-    <t>1+2+3+335</t>
-  </si>
-  <si>
-    <t>1+2+3+336</t>
-  </si>
-  <si>
-    <t>1+2+3+337</t>
-  </si>
-  <si>
-    <t>1+2+3+338</t>
-  </si>
-  <si>
-    <t>1+2+3+339</t>
-  </si>
-  <si>
-    <t>1+2+3+340</t>
-  </si>
-  <si>
-    <t>1+2+3+341</t>
-  </si>
-  <si>
-    <t>1+2+3+342</t>
-  </si>
-  <si>
-    <t>1+2+3+343</t>
-  </si>
-  <si>
-    <t>1+2+3+344</t>
-  </si>
-  <si>
-    <t>1+2+3+345</t>
-  </si>
-  <si>
-    <t>1+2+3+346</t>
-  </si>
-  <si>
-    <t>1+2+3+347</t>
-  </si>
-  <si>
-    <t>1+2+3+348</t>
-  </si>
-  <si>
-    <t>1+2+3+349</t>
-  </si>
-  <si>
-    <t>1+2+3+350</t>
-  </si>
-  <si>
-    <t>1+2+3+351</t>
-  </si>
-  <si>
-    <t>1+2+3+352</t>
-  </si>
-  <si>
-    <t>1+2+3+353</t>
-  </si>
-  <si>
-    <t>1+2+3+354</t>
-  </si>
-  <si>
-    <t>1+2+3+355</t>
-  </si>
-  <si>
-    <t>1+2+3+356</t>
-  </si>
-  <si>
-    <t>1+2+3+357</t>
-  </si>
-  <si>
-    <t>1+2+3+358</t>
-  </si>
-  <si>
-    <t>1+2+3+359</t>
-  </si>
-  <si>
-    <t>1+2+3+360</t>
-  </si>
-  <si>
-    <t>1+2+3+361</t>
-  </si>
-  <si>
-    <t>1+2+3+362</t>
-  </si>
-  <si>
-    <t>1+2+3+363</t>
-  </si>
-  <si>
-    <t>1+2+3+364</t>
-  </si>
-  <si>
-    <t>1+2+3+365</t>
-  </si>
-  <si>
-    <t>1+2+3+366</t>
-  </si>
-  <si>
-    <t>1+2+3+367</t>
-  </si>
-  <si>
-    <t>1+2+3+368</t>
-  </si>
-  <si>
-    <t>1+2+3+369</t>
-  </si>
-  <si>
-    <t>1+2+3+370</t>
-  </si>
-  <si>
-    <t>1+2+3+371</t>
-  </si>
-  <si>
-    <t>1+2+3+372</t>
-  </si>
-  <si>
-    <t>1+2+3+373</t>
-  </si>
-  <si>
-    <t>1+2+3+374</t>
-  </si>
-  <si>
-    <t>1+2+3+375</t>
-  </si>
-  <si>
-    <t>1+2+3+376</t>
-  </si>
-  <si>
-    <t>1+2+3+377</t>
-  </si>
-  <si>
-    <t>1+2+3+378</t>
-  </si>
-  <si>
-    <t>1+2+3+379</t>
-  </si>
-  <si>
-    <t>1+2+3+380</t>
-  </si>
-  <si>
-    <t>1+2+3+381</t>
-  </si>
-  <si>
-    <t>1+2+3+382</t>
-  </si>
-  <si>
-    <t>1+2+3+383</t>
-  </si>
-  <si>
-    <t>1+2+3+384</t>
-  </si>
-  <si>
-    <t>1+2+3+385</t>
-  </si>
-  <si>
-    <t>1+2+3+386</t>
-  </si>
-  <si>
-    <t>1+2+3+387</t>
-  </si>
-  <si>
-    <t>1+2+3+388</t>
-  </si>
-  <si>
-    <t>1+2+3+389</t>
-  </si>
-  <si>
-    <t>1+2+3+390</t>
-  </si>
-  <si>
-    <t>1+2+3+391</t>
-  </si>
-  <si>
-    <t>1+2+3+392</t>
-  </si>
-  <si>
-    <t>1+2+3+393</t>
-  </si>
-  <si>
-    <t>1+2+3+394</t>
-  </si>
-  <si>
-    <t>1+2+3+395</t>
-  </si>
-  <si>
-    <t>1+2+3+396</t>
-  </si>
-  <si>
-    <t>1+2+3+397</t>
-  </si>
-  <si>
-    <t>1+2+3+398</t>
-  </si>
-  <si>
-    <t>1+2+3+399</t>
-  </si>
-  <si>
-    <t>1+2+3+400</t>
-  </si>
-  <si>
-    <t>1+2+3+401</t>
-  </si>
-  <si>
-    <t>1+2+3+402</t>
-  </si>
-  <si>
-    <t>1+2+3+403</t>
-  </si>
-  <si>
-    <t>1+2+3+404</t>
-  </si>
-  <si>
-    <t>1+2+3+405</t>
-  </si>
-  <si>
-    <t>1+2+3+406</t>
-  </si>
-  <si>
-    <t>1+2+3+407</t>
-  </si>
-  <si>
-    <t>1+2+3+408</t>
-  </si>
-  <si>
-    <t>1+2+3+409</t>
-  </si>
-  <si>
-    <t>1+2+3+410</t>
-  </si>
-  <si>
-    <t>1+2+3+411</t>
-  </si>
-  <si>
-    <t>1+2+3+412</t>
-  </si>
-  <si>
-    <t>1+2+3+413</t>
-  </si>
-  <si>
-    <t>1+2+3+414</t>
-  </si>
-  <si>
-    <t>1+2+3+415</t>
-  </si>
-  <si>
-    <t>1+2+3+416</t>
-  </si>
-  <si>
-    <t>1+2+3+417</t>
-  </si>
-  <si>
-    <t>1+2+3+418</t>
-  </si>
-  <si>
-    <t>1+2+3+419</t>
-  </si>
-  <si>
-    <t>1+2+3+420</t>
-  </si>
-  <si>
-    <t>1+2+3+421</t>
-  </si>
-  <si>
-    <t>1+2+3+422</t>
-  </si>
-  <si>
-    <t>1+2+3+423</t>
-  </si>
-  <si>
-    <t>1+2+3+424</t>
-  </si>
-  <si>
-    <t>1+2+3+425</t>
-  </si>
-  <si>
-    <t>1+2+3+426</t>
-  </si>
-  <si>
-    <t>1+2+3+427</t>
-  </si>
-  <si>
-    <t>1+2+3+428</t>
-  </si>
-  <si>
-    <t>1+2+3+429</t>
-  </si>
-  <si>
-    <t>1+2+3+430</t>
-  </si>
-  <si>
-    <t>1+2+3+431</t>
-  </si>
-  <si>
-    <t>1+2+3+432</t>
-  </si>
-  <si>
-    <t>1+2+3+433</t>
-  </si>
-  <si>
-    <t>1+2+3+434</t>
-  </si>
-  <si>
-    <t>1+2+3+435</t>
-  </si>
-  <si>
-    <t>1+2+3+436</t>
-  </si>
-  <si>
-    <t>1+2+3+437</t>
-  </si>
-  <si>
-    <t>1+2+3+438</t>
-  </si>
-  <si>
-    <t>1+2+3+439</t>
-  </si>
-  <si>
-    <t>1+2+3+440</t>
-  </si>
-  <si>
-    <t>1+2+3+441</t>
-  </si>
-  <si>
-    <t>1+2+3+442</t>
-  </si>
-  <si>
-    <t>1+2+3+443</t>
-  </si>
-  <si>
-    <t>1+2+3+444</t>
-  </si>
-  <si>
-    <t>1+2+3+445</t>
-  </si>
-  <si>
-    <t>1+2+3+446</t>
-  </si>
-  <si>
-    <t>1+2+3+447</t>
-  </si>
-  <si>
-    <t>1+2+3+448</t>
-  </si>
-  <si>
-    <t>1+2+3+449</t>
-  </si>
-  <si>
-    <t>1+2+3+450</t>
-  </si>
-  <si>
-    <t>1+2+3+451</t>
-  </si>
-  <si>
-    <t>1+2+3+452</t>
-  </si>
-  <si>
-    <t>1+2+3+453</t>
-  </si>
-  <si>
-    <t>1+2+3+454</t>
-  </si>
-  <si>
-    <t>1+2+3+455</t>
-  </si>
-  <si>
-    <t>1+2+3+456</t>
-  </si>
-  <si>
-    <t>1+2+3+457</t>
-  </si>
-  <si>
-    <t>1+2+3+458</t>
-  </si>
-  <si>
-    <t>1+2+3+459</t>
-  </si>
-  <si>
-    <t>1+2+3+460</t>
-  </si>
-  <si>
-    <t>1+2+3+461</t>
-  </si>
-  <si>
-    <t>1+2+3+462</t>
-  </si>
-  <si>
-    <t>1+2+3+463</t>
-  </si>
-  <si>
-    <t>1+2+3+464</t>
-  </si>
-  <si>
-    <t>1+2+3+465</t>
-  </si>
-  <si>
-    <t>1+2+3+466</t>
-  </si>
-  <si>
-    <t>1+2+3+467</t>
-  </si>
-  <si>
-    <t>1+2+3+468</t>
-  </si>
-  <si>
-    <t>1+2+3+469</t>
-  </si>
-  <si>
-    <t>1+2+3+470</t>
-  </si>
-  <si>
-    <t>1+2+3+471</t>
-  </si>
-  <si>
-    <t>1+2+3+472</t>
-  </si>
-  <si>
-    <t>1+2+3+473</t>
-  </si>
-  <si>
-    <t>1+2+3+474</t>
-  </si>
-  <si>
-    <t>1+2+3+475</t>
-  </si>
-  <si>
-    <t>1+2+3+476</t>
-  </si>
-  <si>
-    <t>1+2+3+477</t>
-  </si>
-  <si>
-    <t>1+2+3+478</t>
-  </si>
-  <si>
-    <t>1+2+3+479</t>
-  </si>
-  <si>
-    <t>1+2+3+480</t>
-  </si>
-  <si>
-    <t>1+2+3+481</t>
-  </si>
-  <si>
-    <t>1+2+3+482</t>
-  </si>
-  <si>
-    <t>1+2+3+483</t>
-  </si>
-  <si>
-    <t>1+2+3+484</t>
-  </si>
-  <si>
-    <t>1+2+3+485</t>
-  </si>
-  <si>
-    <t>1+2+3+486</t>
-  </si>
-  <si>
-    <t>1+2+3+487</t>
-  </si>
-  <si>
-    <t>1+2+3+488</t>
-  </si>
-  <si>
-    <t>1+2+3+489</t>
-  </si>
-  <si>
-    <t>1+2+3+490</t>
-  </si>
-  <si>
-    <t>1+2+3+491</t>
-  </si>
-  <si>
-    <t>1+2+3+492</t>
-  </si>
-  <si>
-    <t>1+2+3+493</t>
-  </si>
-  <si>
-    <t>1+2+3+494</t>
-  </si>
-  <si>
-    <t>1+2+3+495</t>
-  </si>
-  <si>
-    <t>1+2+3+496</t>
-  </si>
-  <si>
-    <t>1+2+3+497</t>
-  </si>
-  <si>
-    <t>1+2+3+498</t>
-  </si>
-  <si>
-    <t>1+2+3+499</t>
-  </si>
-  <si>
-    <t>1+2+3+500</t>
-  </si>
-  <si>
-    <t>1+2+3+501</t>
-  </si>
-  <si>
-    <t>1+2+3+502</t>
-  </si>
-  <si>
-    <t>1+2+3+503</t>
-  </si>
-  <si>
-    <t>1+2+3+504</t>
-  </si>
-  <si>
-    <t>1+2+3+505</t>
-  </si>
-  <si>
-    <t>1+2+3+506</t>
-  </si>
-  <si>
-    <t>1+2+3+507</t>
-  </si>
-  <si>
-    <t>1+2+3+508</t>
-  </si>
-  <si>
-    <t>1+2+3+509</t>
-  </si>
-  <si>
-    <t>1+2+3+510</t>
-  </si>
-  <si>
-    <t>1+2+3+511</t>
-  </si>
-  <si>
-    <t>1+2+3+512</t>
-  </si>
-  <si>
-    <t>1+2+3+513</t>
-  </si>
-  <si>
-    <t>1+2+3+514</t>
-  </si>
-  <si>
-    <t>1+2+3+515</t>
-  </si>
-  <si>
-    <t>1+2+3+516</t>
-  </si>
-  <si>
-    <t>1+2+3+517</t>
-  </si>
-  <si>
-    <t>1+2+3+518</t>
-  </si>
-  <si>
-    <t>1+2+3+519</t>
-  </si>
-  <si>
-    <t>1+2+3+520</t>
-  </si>
-  <si>
-    <t>1+2+3+521</t>
-  </si>
-  <si>
-    <t>1+2+3+522</t>
-  </si>
-  <si>
-    <t>1+2+3+523</t>
-  </si>
-  <si>
-    <t>1+2+3+524</t>
-  </si>
-  <si>
-    <t>1+2+3+525</t>
-  </si>
-  <si>
-    <t>1+2+3+526</t>
-  </si>
-  <si>
-    <t>1+2+3+527</t>
-  </si>
-  <si>
-    <t>1+2+3+528</t>
-  </si>
-  <si>
-    <t>1+2+3+529</t>
-  </si>
-  <si>
-    <t>1+2+3+530</t>
-  </si>
-  <si>
-    <t>1+2+3+531</t>
-  </si>
-  <si>
-    <t>1+2+3+532</t>
-  </si>
-  <si>
-    <t>1+2+3+533</t>
-  </si>
-  <si>
-    <t>1+2+3+534</t>
-  </si>
-  <si>
-    <t>1+2+3+535</t>
-  </si>
-  <si>
-    <t>1+2+3+536</t>
-  </si>
-  <si>
-    <t>1+2+3+537</t>
-  </si>
-  <si>
-    <t>1+2+3+538</t>
-  </si>
-  <si>
-    <t>1+2+3+539</t>
-  </si>
-  <si>
-    <t>1+2+3+540</t>
-  </si>
-  <si>
-    <t>1+2+3+541</t>
-  </si>
-  <si>
-    <t>1+2+3+542</t>
-  </si>
-  <si>
-    <t>1+2+3+543</t>
-  </si>
-  <si>
-    <t>1+2+3+544</t>
-  </si>
-  <si>
-    <t>1+2+3+545</t>
-  </si>
-  <si>
-    <t>1+2+3+546</t>
-  </si>
-  <si>
-    <t>1+2+3+547</t>
-  </si>
-  <si>
-    <t>1+2+3+548</t>
-  </si>
-  <si>
-    <t>1+2+3+549</t>
-  </si>
-  <si>
-    <t>1+2+3+550</t>
-  </si>
-  <si>
-    <t>1+2+3+551</t>
-  </si>
-  <si>
-    <t>1+2+3+552</t>
-  </si>
-  <si>
-    <t>1+2+3+553</t>
-  </si>
-  <si>
-    <t>1+2+3+554</t>
-  </si>
-  <si>
-    <t>1+2+3+555</t>
-  </si>
-  <si>
-    <t>1+2+3+556</t>
-  </si>
-  <si>
-    <t>1+2+3+557</t>
-  </si>
-  <si>
-    <t>1+2+3+558</t>
-  </si>
-  <si>
-    <t>1+2+3+559</t>
-  </si>
-  <si>
-    <t>1+2+3+560</t>
-  </si>
-  <si>
-    <t>1+2+3+561</t>
-  </si>
-  <si>
-    <t>1+2+3+562</t>
-  </si>
-  <si>
-    <t>1+2+3+563</t>
-  </si>
-  <si>
-    <t>1+2+3+564</t>
-  </si>
-  <si>
-    <t>1+2+3+565</t>
-  </si>
-  <si>
-    <t>1+2+3+566</t>
-  </si>
-  <si>
-    <t>1+2+3+567</t>
-  </si>
-  <si>
-    <t>1+2+3+568</t>
-  </si>
-  <si>
-    <t>1+2+3+569</t>
-  </si>
-  <si>
-    <t>1+2+3+570</t>
-  </si>
-  <si>
-    <t>1+2+3+571</t>
-  </si>
-  <si>
-    <t>1+2+3+572</t>
-  </si>
-  <si>
-    <t>1+2+3+573</t>
-  </si>
-  <si>
-    <t>1+2+3+574</t>
-  </si>
-  <si>
-    <t>1+2+3+575</t>
-  </si>
-  <si>
-    <t>1+2+3+576</t>
-  </si>
-  <si>
-    <t>1+2+3+577</t>
-  </si>
-  <si>
-    <t>1+2+3+578</t>
-  </si>
-  <si>
-    <t>1+2+3+579</t>
-  </si>
-  <si>
-    <t>1+2+3+580</t>
-  </si>
-  <si>
-    <t>1+2+3+581</t>
-  </si>
-  <si>
-    <t>1+2+3+582</t>
-  </si>
-  <si>
-    <t>1+2+3+583</t>
-  </si>
-  <si>
-    <t>1+2+3+584</t>
-  </si>
-  <si>
-    <t>1+2+3+585</t>
-  </si>
-  <si>
-    <t>1+2+3+586</t>
-  </si>
-  <si>
-    <t>1+2+3+587</t>
-  </si>
-  <si>
-    <t>1+2+3+588</t>
-  </si>
-  <si>
-    <t>1+2+3+589</t>
-  </si>
-  <si>
-    <t>1+2+3+590</t>
-  </si>
-  <si>
-    <t>1+2+3+591</t>
-  </si>
-  <si>
-    <t>1+2+3+592</t>
-  </si>
-  <si>
-    <t>1+2+3+593</t>
-  </si>
-  <si>
-    <t>1+2+3+594</t>
-  </si>
-  <si>
-    <t>1+2+3+595</t>
-  </si>
-  <si>
-    <t>1+2+3+596</t>
-  </si>
-  <si>
-    <t>1+2+3+597</t>
-  </si>
-  <si>
-    <t>1+2+3+598</t>
-  </si>
-  <si>
-    <t>1+2+3+599</t>
-  </si>
-  <si>
-    <t>1+2+3+600</t>
-  </si>
-  <si>
-    <t>1+2+3+601</t>
-  </si>
-  <si>
-    <t>1+2+3+602</t>
-  </si>
-  <si>
-    <t>1+2+3+603</t>
-  </si>
-  <si>
-    <t>1+2+3+604</t>
-  </si>
-  <si>
-    <t>1+2+3+605</t>
-  </si>
-  <si>
-    <t>1+2+3+606</t>
-  </si>
-  <si>
-    <t>1+2+3+607</t>
-  </si>
-  <si>
-    <t>1+2+3+608</t>
-  </si>
-  <si>
-    <t>1+2+3+609</t>
-  </si>
-  <si>
-    <t>1+2+3+610</t>
-  </si>
-  <si>
-    <t>1+2+3+611</t>
-  </si>
-  <si>
-    <t>1+2+3+612</t>
-  </si>
-  <si>
-    <t>1+2+3+613</t>
-  </si>
-  <si>
-    <t>1+2+3+614</t>
-  </si>
-  <si>
-    <t>1+2+3+615</t>
-  </si>
-  <si>
-    <t>1+2+3+616</t>
-  </si>
-  <si>
-    <t>1+2+3+617</t>
-  </si>
-  <si>
-    <t>1+2+3+618</t>
-  </si>
-  <si>
-    <t>1+2+3+619</t>
-  </si>
-  <si>
-    <t>1+2+3+620</t>
-  </si>
-  <si>
-    <t>1+2+3+621</t>
-  </si>
-  <si>
-    <t>1+2+3+622</t>
-  </si>
-  <si>
-    <t>1+2+3+623</t>
-  </si>
-  <si>
-    <t>1+2+3+624</t>
-  </si>
-  <si>
-    <t>1+2+3+625</t>
-  </si>
-  <si>
-    <t>1+2+3+626</t>
-  </si>
-  <si>
-    <t>1+2+3+627</t>
-  </si>
-  <si>
-    <t>1+2+3+628</t>
-  </si>
-  <si>
-    <t>1+2+3+629</t>
-  </si>
-  <si>
-    <t>1+2+3+630</t>
-  </si>
-  <si>
-    <t>1+2+3+631</t>
-  </si>
-  <si>
-    <t>1+2+3+632</t>
-  </si>
-  <si>
-    <t>1+2+3+633</t>
-  </si>
-  <si>
-    <t>1+2+3+634</t>
-  </si>
-  <si>
-    <t>1+2+3+635</t>
-  </si>
-  <si>
-    <t>1+2+3+636</t>
-  </si>
-  <si>
-    <t>1+2+3+637</t>
-  </si>
-  <si>
-    <t>1+2+3+638</t>
-  </si>
-  <si>
-    <t>1+2+3+639</t>
-  </si>
-  <si>
-    <t>1+2+3+640</t>
-  </si>
-  <si>
-    <t>1+2+3+641</t>
-  </si>
-  <si>
-    <t>1+2+3+642</t>
-  </si>
-  <si>
-    <t>1+2+3+643</t>
-  </si>
-  <si>
-    <t>1+2+3+644</t>
-  </si>
-  <si>
-    <t>1+2+3+645</t>
-  </si>
-  <si>
-    <t>1+2+3+646</t>
-  </si>
-  <si>
-    <t>1+2+3+647</t>
-  </si>
-  <si>
-    <t>1+2+3+648</t>
-  </si>
-  <si>
-    <t>1+2+3+649</t>
-  </si>
-  <si>
-    <t>1+2+3+650</t>
-  </si>
-  <si>
-    <t>1+2+3+651</t>
-  </si>
-  <si>
-    <t>1+2+3+652</t>
-  </si>
-  <si>
-    <t>1+2+3+653</t>
-  </si>
-  <si>
-    <t>1+2+3+654</t>
-  </si>
-  <si>
-    <t>1+2+3+655</t>
-  </si>
-  <si>
-    <t>1+2+3+656</t>
-  </si>
-  <si>
-    <t>1+2+3+657</t>
-  </si>
-  <si>
-    <t>1+2+3+658</t>
-  </si>
-  <si>
-    <t>1+2+3+659</t>
-  </si>
-  <si>
-    <t>1+2+3+660</t>
-  </si>
-  <si>
-    <t>1+2+3+661</t>
-  </si>
-  <si>
-    <t>1+2+3+662</t>
-  </si>
-  <si>
-    <t>1+2+3+663</t>
-  </si>
-  <si>
-    <t>1+2+3+664</t>
-  </si>
-  <si>
-    <t>1+2+3+665</t>
-  </si>
-  <si>
-    <t>1+2+3+666</t>
-  </si>
-  <si>
-    <t>1+2+3+667</t>
-  </si>
-  <si>
-    <t>1+2+3+668</t>
-  </si>
-  <si>
-    <t>1+2+3+669</t>
-  </si>
-  <si>
-    <t>1+2+3+670</t>
-  </si>
-  <si>
-    <t>1+2+3+671</t>
-  </si>
-  <si>
-    <t>1+2+3+672</t>
-  </si>
-  <si>
-    <t>1+2+3+673</t>
-  </si>
-  <si>
-    <t>1+2+3+674</t>
-  </si>
-  <si>
-    <t>1+2+3+675</t>
-  </si>
-  <si>
-    <t>1+2+3+676</t>
-  </si>
-  <si>
-    <t>1+2+3+677</t>
-  </si>
-  <si>
-    <t>1+2+3+678</t>
-  </si>
-  <si>
-    <t>1+2+3+679</t>
-  </si>
-  <si>
-    <t>1+2+3+680</t>
-  </si>
-  <si>
-    <t>1+2+3+681</t>
-  </si>
-  <si>
-    <t>1+2+3+682</t>
-  </si>
-  <si>
-    <t>1+2+3+683</t>
-  </si>
-  <si>
-    <t>1+2+3+684</t>
-  </si>
-  <si>
-    <t>1+2+3+685</t>
-  </si>
-  <si>
-    <t>1+2+3+686</t>
-  </si>
-  <si>
-    <t>1+2+3+687</t>
-  </si>
-  <si>
-    <t>1+2+3+688</t>
-  </si>
-  <si>
-    <t>1+2+3+689</t>
-  </si>
-  <si>
-    <t>1+2+3+690</t>
-  </si>
-  <si>
-    <t>1+2+3+691</t>
-  </si>
-  <si>
-    <t>1+2+3+692</t>
-  </si>
-  <si>
-    <t>1+2+3+693</t>
-  </si>
-  <si>
-    <t>1+2+3+694</t>
-  </si>
-  <si>
-    <t>1+2+3+695</t>
-  </si>
-  <si>
-    <t>1+2+3+696</t>
-  </si>
-  <si>
-    <t>1+2+3+697</t>
-  </si>
-  <si>
-    <t>1+2+3+698</t>
-  </si>
-  <si>
-    <t>1+2+3+699</t>
-  </si>
-  <si>
-    <t>1+2+3+700</t>
-  </si>
-  <si>
-    <t>1+2+3+701</t>
-  </si>
-  <si>
-    <t>1+2+3+702</t>
-  </si>
-  <si>
-    <t>1+2+3+703</t>
-  </si>
-  <si>
-    <t>1+2+3+704</t>
-  </si>
-  <si>
-    <t>1+2+3+705</t>
-  </si>
-  <si>
-    <t>1+2+3+706</t>
-  </si>
-  <si>
-    <t>1+2+3+707</t>
-  </si>
-  <si>
-    <t>1+2+3+708</t>
-  </si>
-  <si>
-    <t>1+2+3+709</t>
-  </si>
-  <si>
-    <t>1+2+3+710</t>
-  </si>
-  <si>
-    <t>1+2+3+711</t>
-  </si>
-  <si>
-    <t>1+2+3+712</t>
-  </si>
-  <si>
-    <t>1+2+3+713</t>
-  </si>
-  <si>
-    <t>1+2+3+714</t>
-  </si>
-  <si>
-    <t>1+2+3+715</t>
-  </si>
-  <si>
-    <t>1+2+3+716</t>
-  </si>
-  <si>
-    <t>1+2+3+717</t>
-  </si>
-  <si>
-    <t>1+2+3+718</t>
-  </si>
-  <si>
-    <t>1+2+3+719</t>
-  </si>
-  <si>
-    <t>1+2+3+720</t>
-  </si>
-  <si>
-    <t>1+2+3+721</t>
-  </si>
-  <si>
-    <t>1+2+3+722</t>
-  </si>
-  <si>
-    <t>1+2+3+723</t>
-  </si>
-  <si>
-    <t>1+2+3+724</t>
-  </si>
-  <si>
-    <t>1+2+3+725</t>
-  </si>
-  <si>
-    <t>1+2+3+726</t>
-  </si>
-  <si>
-    <t>1+2+3+727</t>
-  </si>
-  <si>
-    <t>1+2+3+728</t>
-  </si>
-  <si>
-    <t>1+2+3+729</t>
-  </si>
-  <si>
-    <t>1+2+3+730</t>
-  </si>
-  <si>
-    <t>1+2+3+731</t>
-  </si>
-  <si>
-    <t>1+2+3+732</t>
-  </si>
-  <si>
-    <t>1+2+3+733</t>
-  </si>
-  <si>
-    <t>1+2+3+734</t>
-  </si>
-  <si>
-    <t>1+2+3+735</t>
-  </si>
-  <si>
-    <t>1+2+3+736</t>
-  </si>
-  <si>
-    <t>1+2+3+737</t>
-  </si>
-  <si>
-    <t>1+2+3+738</t>
-  </si>
-  <si>
-    <t>1+2+3+739</t>
-  </si>
-  <si>
-    <t>1+2+3+740</t>
-  </si>
-  <si>
-    <t>1+2+3+741</t>
-  </si>
-  <si>
-    <t>1+2+3+742</t>
-  </si>
-  <si>
-    <t>1+2+3+743</t>
-  </si>
-  <si>
-    <t>1+2+3+744</t>
-  </si>
-  <si>
-    <t>1+2+3+745</t>
-  </si>
-  <si>
-    <t>1+2+3+746</t>
-  </si>
-  <si>
-    <t>1+2+3+747</t>
-  </si>
-  <si>
-    <t>1+2+3+748</t>
-  </si>
-  <si>
-    <t>1+2+3+749</t>
-  </si>
-  <si>
-    <t>1+2+3+750</t>
-  </si>
-  <si>
-    <t>1+2+3+751</t>
-  </si>
-  <si>
-    <t>1+2+3+752</t>
-  </si>
-  <si>
-    <t>1+2+3+753</t>
-  </si>
-  <si>
-    <t>1+2+3+754</t>
-  </si>
-  <si>
-    <t>1+2+3+755</t>
-  </si>
-  <si>
-    <t>1+2+3+756</t>
-  </si>
-  <si>
-    <t>1+2+3+757</t>
-  </si>
-  <si>
-    <t>1+2+3+758</t>
-  </si>
-  <si>
-    <t>1+2+3+759</t>
-  </si>
-  <si>
-    <t>1+2+3+760</t>
-  </si>
-  <si>
-    <t>1+2+3+761</t>
-  </si>
-  <si>
-    <t>1+2+3+762</t>
-  </si>
-  <si>
-    <t>1+2+3+763</t>
-  </si>
-  <si>
-    <t>1+2+3+764</t>
-  </si>
-  <si>
-    <t>1+2+3+765</t>
-  </si>
-  <si>
-    <t>1+2+3+766</t>
-  </si>
-  <si>
-    <t>1+2+3+767</t>
-  </si>
-  <si>
-    <t>1+2+3+768</t>
-  </si>
-  <si>
-    <t>1+2+3+769</t>
-  </si>
-  <si>
-    <t>1+2+3+770</t>
-  </si>
-  <si>
-    <t>1+2+3+771</t>
-  </si>
-  <si>
-    <t>1+2+3+772</t>
-  </si>
-  <si>
-    <t>1+2+3+773</t>
-  </si>
-  <si>
-    <t>1+2+3+774</t>
-  </si>
-  <si>
-    <t>1+2+3+775</t>
-  </si>
-  <si>
-    <t>1+2+3+776</t>
-  </si>
-  <si>
-    <t>1+2+3+777</t>
-  </si>
-  <si>
-    <t>1+2+3+778</t>
-  </si>
-  <si>
-    <t>1+2+3+779</t>
-  </si>
-  <si>
-    <t>1+2+3+780</t>
-  </si>
-  <si>
-    <t>1+2+3+781</t>
-  </si>
-  <si>
-    <t>1+2+3+782</t>
-  </si>
-  <si>
-    <t>1+2+3+783</t>
-  </si>
-  <si>
-    <t>1+2+3+784</t>
-  </si>
-  <si>
-    <t>1+2+3+785</t>
-  </si>
-  <si>
-    <t>1+2+3+786</t>
-  </si>
-  <si>
-    <t>1+2+3+787</t>
-  </si>
-  <si>
-    <t>1+2+3+788</t>
-  </si>
-  <si>
-    <t>1+2+3+789</t>
-  </si>
-  <si>
-    <t>1+2+3+790</t>
-  </si>
-  <si>
-    <t>1+2+3+791</t>
-  </si>
-  <si>
-    <t>1+2+3+792</t>
-  </si>
-  <si>
-    <t>1+2+3+793</t>
-  </si>
-  <si>
-    <t>1+2+3+794</t>
-  </si>
-  <si>
-    <t>1+2+3+795</t>
-  </si>
-  <si>
-    <t>1+2+3+796</t>
-  </si>
-  <si>
-    <t>1+2+3+797</t>
-  </si>
-  <si>
-    <t>1+2+3+798</t>
-  </si>
-  <si>
-    <t>1+2+3+799</t>
-  </si>
-  <si>
-    <t>1+2+3+800</t>
-  </si>
-  <si>
-    <t>1+2+3+801</t>
-  </si>
-  <si>
-    <t>1+2+3+802</t>
-  </si>
-  <si>
-    <t>1+2+3+803</t>
-  </si>
-  <si>
-    <t>1+2+3+804</t>
-  </si>
-  <si>
-    <t>1+2+3+805</t>
-  </si>
-  <si>
-    <t>1+2+3+806</t>
-  </si>
-  <si>
-    <t>1+2+3+807</t>
-  </si>
-  <si>
-    <t>1+2+3+808</t>
-  </si>
-  <si>
-    <t>1+2+3+809</t>
-  </si>
-  <si>
-    <t>1+2+3+810</t>
-  </si>
-  <si>
-    <t>1+2+3+811</t>
-  </si>
-  <si>
-    <t>1+2+3+812</t>
-  </si>
-  <si>
-    <t>1+2+3+813</t>
-  </si>
-  <si>
-    <t>1+2+3+814</t>
-  </si>
-  <si>
-    <t>1+2+3+815</t>
-  </si>
-  <si>
-    <t>1+2+3+816</t>
-  </si>
-  <si>
-    <t>1+2+3+817</t>
-  </si>
-  <si>
-    <t>1+2+3+818</t>
-  </si>
-  <si>
-    <t>1+2+3+819</t>
-  </si>
-  <si>
-    <t>1+2+3+820</t>
-  </si>
-  <si>
-    <t>1+2+3+821</t>
-  </si>
-  <si>
-    <t>1+2+3+822</t>
-  </si>
-  <si>
-    <t>1+2+3+823</t>
-  </si>
-  <si>
-    <t>1+2+3+824</t>
-  </si>
-  <si>
-    <t>1+2+3+825</t>
-  </si>
-  <si>
-    <t>1+2+3+826</t>
-  </si>
-  <si>
-    <t>1+2+3+827</t>
-  </si>
-  <si>
-    <t>1+2+3+828</t>
-  </si>
-  <si>
-    <t>1+2+3+829</t>
-  </si>
-  <si>
-    <t>1+2+3+830</t>
-  </si>
-  <si>
-    <t>1+2+3+831</t>
-  </si>
-  <si>
-    <t>1+2+3+832</t>
-  </si>
-  <si>
-    <t>1+2+3+833</t>
-  </si>
-  <si>
-    <t>1+2+3+834</t>
-  </si>
-  <si>
-    <t>1+2+3+835</t>
-  </si>
-  <si>
-    <t>1+2+3+836</t>
-  </si>
-  <si>
-    <t>1+2+3+837</t>
-  </si>
-  <si>
-    <t>1+2+3+838</t>
-  </si>
-  <si>
-    <t>1+2+3+839</t>
-  </si>
-  <si>
-    <t>1+2+3+840</t>
-  </si>
-  <si>
-    <t>1+2+3+841</t>
-  </si>
-  <si>
-    <t>1+2+3+842</t>
-  </si>
-  <si>
-    <t>1+2+3+843</t>
-  </si>
-  <si>
-    <t>1+2+3+844</t>
-  </si>
-  <si>
-    <t>1+2+3+845</t>
-  </si>
-  <si>
-    <t>1+2+3+846</t>
-  </si>
-  <si>
-    <t>1+2+3+847</t>
-  </si>
-  <si>
-    <t>1+2+3+848</t>
-  </si>
-  <si>
-    <t>1+2+3+849</t>
-  </si>
-  <si>
-    <t>1+2+3+850</t>
-  </si>
-  <si>
-    <t>1+2+3+851</t>
-  </si>
-  <si>
-    <t>1+2+3+852</t>
-  </si>
-  <si>
-    <t>1+2+3+853</t>
-  </si>
-  <si>
-    <t>1+2+3+854</t>
-  </si>
-  <si>
-    <t>1+2+3+855</t>
-  </si>
-  <si>
-    <t>1+2+3+856</t>
-  </si>
-  <si>
-    <t>1+2+3+857</t>
-  </si>
-  <si>
-    <t>1+2+3+858</t>
-  </si>
-  <si>
-    <t>1+2+3+859</t>
-  </si>
-  <si>
-    <t>1+2+3+860</t>
-  </si>
-  <si>
-    <t>1+2+3+861</t>
-  </si>
-  <si>
-    <t>1+2+3+862</t>
-  </si>
-  <si>
-    <t>1+2+3+863</t>
-  </si>
-  <si>
-    <t>1+2+3+864</t>
-  </si>
-  <si>
-    <t>1+2+3+865</t>
-  </si>
-  <si>
-    <t>1+2+3+866</t>
-  </si>
-  <si>
-    <t>1+2+3+867</t>
-  </si>
-  <si>
-    <t>1+2+3+868</t>
-  </si>
-  <si>
-    <t>1+2+3+869</t>
-  </si>
-  <si>
-    <t>1+2+3+870</t>
-  </si>
-  <si>
-    <t>1+2+3+871</t>
-  </si>
-  <si>
-    <t>1+2+3+872</t>
-  </si>
-  <si>
-    <t>1+2+3+873</t>
-  </si>
-  <si>
-    <t>1+2+3+874</t>
-  </si>
-  <si>
-    <t>1+2+3+875</t>
-  </si>
-  <si>
-    <t>1+2+3+876</t>
-  </si>
-  <si>
-    <t>1+2+3+877</t>
-  </si>
-  <si>
-    <t>1+2+3+878</t>
-  </si>
-  <si>
-    <t>1+2+3+879</t>
-  </si>
-  <si>
-    <t>1+2+3+880</t>
-  </si>
-  <si>
-    <t>1+2+3+881</t>
-  </si>
-  <si>
-    <t>1+2+3+882</t>
-  </si>
-  <si>
-    <t>1+2+3+883</t>
-  </si>
-  <si>
-    <t>1+2+3+884</t>
-  </si>
-  <si>
-    <t>1+2+3+885</t>
-  </si>
-  <si>
-    <t>1+2+3+886</t>
-  </si>
-  <si>
-    <t>1+2+3+887</t>
-  </si>
-  <si>
-    <t>1+2+3+888</t>
-  </si>
-  <si>
-    <t>1+2+3+889</t>
-  </si>
-  <si>
-    <t>1+2+3+890</t>
-  </si>
-  <si>
-    <t>1+2+3+891</t>
-  </si>
-  <si>
-    <t>1+2+3+892</t>
-  </si>
-  <si>
-    <t>1+2+3+893</t>
-  </si>
-  <si>
-    <t>1+2+3+894</t>
-  </si>
-  <si>
-    <t>1+2+3+895</t>
-  </si>
-  <si>
-    <t>1+2+3+896</t>
-  </si>
-  <si>
-    <t>1+2+3+897</t>
-  </si>
-  <si>
-    <t>1+2+3+898</t>
-  </si>
-  <si>
-    <t>1+2+3+899</t>
-  </si>
-  <si>
-    <t>1+2+3+900</t>
-  </si>
-  <si>
-    <t>1+2+3+901</t>
-  </si>
-  <si>
-    <t>1+2+3+902</t>
-  </si>
-  <si>
-    <t>1+2+3+903</t>
-  </si>
-  <si>
-    <t>1+2+3+904</t>
-  </si>
-  <si>
-    <t>1+2+3+905</t>
-  </si>
-  <si>
-    <t>1+2+3+906</t>
-  </si>
-  <si>
-    <t>1+2+3+907</t>
-  </si>
-  <si>
-    <t>1+2+3+908</t>
-  </si>
-  <si>
-    <t>1+2+3+909</t>
-  </si>
-  <si>
-    <t>1+2+3+910</t>
-  </si>
-  <si>
-    <t>1+2+3+911</t>
-  </si>
-  <si>
-    <t>1+2+3+912</t>
-  </si>
-  <si>
-    <t>1+2+3+913</t>
-  </si>
-  <si>
-    <t>1+2+3+914</t>
-  </si>
-  <si>
-    <t>1+2+3+915</t>
-  </si>
-  <si>
-    <t>1+2+3+916</t>
-  </si>
-  <si>
-    <t>1+2+3+917</t>
-  </si>
-  <si>
-    <t>1+2+3+918</t>
-  </si>
-  <si>
-    <t>1+2+3+919</t>
-  </si>
-  <si>
-    <t>1+2+3+920</t>
-  </si>
-  <si>
-    <t>1+2+3+921</t>
-  </si>
-  <si>
-    <t>1+2+3+922</t>
-  </si>
-  <si>
-    <t>1+2+3+923</t>
-  </si>
-  <si>
-    <t>1+2+3+924</t>
-  </si>
-  <si>
-    <t>1+2+3+925</t>
-  </si>
-  <si>
-    <t>1+2+3+926</t>
-  </si>
-  <si>
-    <t>1+2+3+927</t>
-  </si>
-  <si>
-    <t>1+2+3+928</t>
-  </si>
-  <si>
-    <t>1+2+3+929</t>
-  </si>
-  <si>
-    <t>1+2+3+930</t>
-  </si>
-  <si>
-    <t>1+2+3+931</t>
-  </si>
-  <si>
-    <t>1+2+3+932</t>
-  </si>
-  <si>
-    <t>1+2+3+933</t>
-  </si>
-  <si>
-    <t>1+2+3+934</t>
-  </si>
-  <si>
-    <t>1+2+3+935</t>
-  </si>
-  <si>
-    <t>1+2+3+936</t>
-  </si>
-  <si>
-    <t>1+2+3+937</t>
-  </si>
-  <si>
-    <t>1+2+3+938</t>
-  </si>
-  <si>
-    <t>1+2+3+939</t>
-  </si>
-  <si>
-    <t>1+2+3+940</t>
-  </si>
-  <si>
-    <t>1+2+3+941</t>
-  </si>
-  <si>
-    <t>1+2+3+942</t>
-  </si>
-  <si>
-    <t>1+2+3+943</t>
-  </si>
-  <si>
-    <t>1+2+3+944</t>
-  </si>
-  <si>
-    <t>1+2+3+945</t>
-  </si>
-  <si>
-    <t>1+2+3+946</t>
-  </si>
-  <si>
-    <t>1+2+3+947</t>
-  </si>
-  <si>
-    <t>1+2+3+948</t>
-  </si>
-  <si>
-    <t>1+2+3+949</t>
-  </si>
-  <si>
-    <t>1+2+3+950</t>
-  </si>
-  <si>
-    <t>1+2+3+951</t>
-  </si>
-  <si>
-    <t>1+2+3+952</t>
-  </si>
-  <si>
-    <t>1+2+3+953</t>
-  </si>
-  <si>
-    <t>1+2+3+954</t>
-  </si>
-  <si>
-    <t>1+2+3+955</t>
-  </si>
-  <si>
-    <t>1+2+3+956</t>
-  </si>
-  <si>
-    <t>1+2+3+957</t>
-  </si>
-  <si>
-    <t>1+2+3+958</t>
-  </si>
-  <si>
-    <t>1+2+3+959</t>
-  </si>
-  <si>
-    <t>1+2+3+960</t>
-  </si>
-  <si>
-    <t>1+2+3+961</t>
-  </si>
-  <si>
-    <t>1+2+3+962</t>
-  </si>
-  <si>
-    <t>1+2+3+963</t>
-  </si>
-  <si>
-    <t>1+2+3+964</t>
-  </si>
-  <si>
-    <t>1+2+3+965</t>
-  </si>
-  <si>
-    <t>1+2+3+966</t>
-  </si>
-  <si>
-    <t>1+2+3+967</t>
-  </si>
-  <si>
-    <t>1+2+3+968</t>
-  </si>
-  <si>
-    <t>1+2+3+969</t>
-  </si>
-  <si>
-    <t>1+2+3+970</t>
-  </si>
-  <si>
-    <t>1+2+3+971</t>
-  </si>
-  <si>
-    <t>1+2+3+972</t>
-  </si>
-  <si>
-    <t>1+2+3+973</t>
-  </si>
-  <si>
-    <t>1+2+3+974</t>
-  </si>
-  <si>
-    <t>1+2+3+975</t>
-  </si>
-  <si>
-    <t>1+2+3+976</t>
-  </si>
-  <si>
-    <t>1+2+3+977</t>
-  </si>
-  <si>
-    <t>1+2+3+978</t>
-  </si>
-  <si>
-    <t>1+2+3+979</t>
-  </si>
-  <si>
-    <t>1+2+3+980</t>
-  </si>
-  <si>
-    <t>1+2+3+981</t>
-  </si>
-  <si>
-    <t>1+2+3+982</t>
-  </si>
-  <si>
-    <t>1+2+3+983</t>
-  </si>
-  <si>
-    <t>1+2+3+984</t>
-  </si>
-  <si>
-    <t>1+2+3+985</t>
-  </si>
-  <si>
-    <t>1+2+3+986</t>
-  </si>
-  <si>
-    <t>1+2+3+987</t>
-  </si>
-  <si>
-    <t>1+2+3+988</t>
-  </si>
-  <si>
-    <t>1+2+3+989</t>
-  </si>
-  <si>
-    <t>1+2+3+990</t>
-  </si>
-  <si>
-    <t>1+2+3+991</t>
-  </si>
-  <si>
-    <t>1+2+3+992</t>
-  </si>
-  <si>
-    <t>1+2+3+993</t>
-  </si>
-  <si>
-    <t>1+2+3+994</t>
-  </si>
-  <si>
-    <t>1+2+3+995</t>
-  </si>
-  <si>
-    <t>1+2+3+996</t>
-  </si>
-  <si>
-    <t>1+2+3+997</t>
+    <t>1#2#3#4</t>
+  </si>
+  <si>
+    <t>a#b#c#d#e#f</t>
+  </si>
+  <si>
+    <t>1#2#3#5</t>
+  </si>
+  <si>
+    <t>1#2#3#6</t>
+  </si>
+  <si>
+    <t>1#2#3#7</t>
+  </si>
+  <si>
+    <t>1#2#3#8</t>
+  </si>
+  <si>
+    <t>1#2#3#9</t>
+  </si>
+  <si>
+    <t>1#2#3#10</t>
+  </si>
+  <si>
+    <t>1#2#3#11</t>
+  </si>
+  <si>
+    <t>1#2#3#12</t>
+  </si>
+  <si>
+    <t>1#2#3#13</t>
+  </si>
+  <si>
+    <t>1#2#3#14</t>
+  </si>
+  <si>
+    <t>1#2#3#15</t>
+  </si>
+  <si>
+    <t>1#2#3#16</t>
+  </si>
+  <si>
+    <t>1#2#3#17</t>
+  </si>
+  <si>
+    <t>1#2#3#18</t>
+  </si>
+  <si>
+    <t>1#2#3#19</t>
+  </si>
+  <si>
+    <t>1#2#3#20</t>
+  </si>
+  <si>
+    <t>1#2#3#21</t>
+  </si>
+  <si>
+    <t>1#2#3#22</t>
+  </si>
+  <si>
+    <t>1#2#3#23</t>
+  </si>
+  <si>
+    <t>1#2#3#24</t>
+  </si>
+  <si>
+    <t>1#2#3#25</t>
+  </si>
+  <si>
+    <t>1#2#3#26</t>
+  </si>
+  <si>
+    <t>1#2#3#27</t>
+  </si>
+  <si>
+    <t>1#2#3#28</t>
+  </si>
+  <si>
+    <t>1#2#3#29</t>
+  </si>
+  <si>
+    <t>1#2#3#30</t>
+  </si>
+  <si>
+    <t>1#2#3#31</t>
+  </si>
+  <si>
+    <t>1#2#3#32</t>
+  </si>
+  <si>
+    <t>1#2#3#33</t>
+  </si>
+  <si>
+    <t>1#2#3#34</t>
+  </si>
+  <si>
+    <t>1#2#3#35</t>
+  </si>
+  <si>
+    <t>1#2#3#36</t>
+  </si>
+  <si>
+    <t>1#2#3#37</t>
+  </si>
+  <si>
+    <t>1#2#3#38</t>
+  </si>
+  <si>
+    <t>1#2#3#39</t>
+  </si>
+  <si>
+    <t>1#2#3#40</t>
+  </si>
+  <si>
+    <t>1#2#3#41</t>
+  </si>
+  <si>
+    <t>1#2#3#42</t>
+  </si>
+  <si>
+    <t>1#2#3#43</t>
+  </si>
+  <si>
+    <t>1#2#3#44</t>
+  </si>
+  <si>
+    <t>1#2#3#45</t>
+  </si>
+  <si>
+    <t>1#2#3#46</t>
+  </si>
+  <si>
+    <t>1#2#3#47</t>
+  </si>
+  <si>
+    <t>1#2#3#48</t>
+  </si>
+  <si>
+    <t>1#2#3#49</t>
+  </si>
+  <si>
+    <t>1#2#3#50</t>
+  </si>
+  <si>
+    <t>1#2#3#51</t>
+  </si>
+  <si>
+    <t>1#2#3#52</t>
+  </si>
+  <si>
+    <t>1#2#3#53</t>
+  </si>
+  <si>
+    <t>1#2#3#54</t>
+  </si>
+  <si>
+    <t>1#2#3#55</t>
+  </si>
+  <si>
+    <t>1#2#3#56</t>
+  </si>
+  <si>
+    <t>1#2#3#57</t>
+  </si>
+  <si>
+    <t>1#2#3#58</t>
+  </si>
+  <si>
+    <t>1#2#3#59</t>
+  </si>
+  <si>
+    <t>1#2#3#60</t>
+  </si>
+  <si>
+    <t>1#2#3#61</t>
+  </si>
+  <si>
+    <t>1#2#3#62</t>
+  </si>
+  <si>
+    <t>1#2#3#63</t>
+  </si>
+  <si>
+    <t>1#2#3#64</t>
+  </si>
+  <si>
+    <t>1#2#3#65</t>
+  </si>
+  <si>
+    <t>1#2#3#66</t>
+  </si>
+  <si>
+    <t>1#2#3#67</t>
+  </si>
+  <si>
+    <t>1#2#3#68</t>
+  </si>
+  <si>
+    <t>1#2#3#69</t>
+  </si>
+  <si>
+    <t>1#2#3#70</t>
+  </si>
+  <si>
+    <t>1#2#3#71</t>
+  </si>
+  <si>
+    <t>1#2#3#72</t>
+  </si>
+  <si>
+    <t>1#2#3#73</t>
+  </si>
+  <si>
+    <t>1#2#3#74</t>
+  </si>
+  <si>
+    <t>1#2#3#75</t>
+  </si>
+  <si>
+    <t>1#2#3#76</t>
+  </si>
+  <si>
+    <t>1#2#3#77</t>
+  </si>
+  <si>
+    <t>1#2#3#78</t>
+  </si>
+  <si>
+    <t>1#2#3#79</t>
+  </si>
+  <si>
+    <t>1#2#3#80</t>
+  </si>
+  <si>
+    <t>1#2#3#81</t>
+  </si>
+  <si>
+    <t>1#2#3#82</t>
+  </si>
+  <si>
+    <t>1#2#3#83</t>
+  </si>
+  <si>
+    <t>1#2#3#84</t>
+  </si>
+  <si>
+    <t>1#2#3#85</t>
+  </si>
+  <si>
+    <t>1#2#3#86</t>
+  </si>
+  <si>
+    <t>1#2#3#87</t>
+  </si>
+  <si>
+    <t>1#2#3#88</t>
+  </si>
+  <si>
+    <t>1#2#3#89</t>
+  </si>
+  <si>
+    <t>1#2#3#90</t>
+  </si>
+  <si>
+    <t>1#2#3#91</t>
+  </si>
+  <si>
+    <t>1#2#3#92</t>
+  </si>
+  <si>
+    <t>1#2#3#93</t>
+  </si>
+  <si>
+    <t>1#2#3#94</t>
+  </si>
+  <si>
+    <t>1#2#3#95</t>
+  </si>
+  <si>
+    <t>1#2#3#96</t>
+  </si>
+  <si>
+    <t>1#2#3#97</t>
+  </si>
+  <si>
+    <t>1#2#3#98</t>
+  </si>
+  <si>
+    <t>1#2#3#99</t>
+  </si>
+  <si>
+    <t>1#2#3#100</t>
+  </si>
+  <si>
+    <t>1#2#3#101</t>
+  </si>
+  <si>
+    <t>1#2#3#102</t>
+  </si>
+  <si>
+    <t>1#2#3#103</t>
+  </si>
+  <si>
+    <t>1#2#3#104</t>
+  </si>
+  <si>
+    <t>1#2#3#105</t>
+  </si>
+  <si>
+    <t>1#2#3#106</t>
+  </si>
+  <si>
+    <t>1#2#3#107</t>
+  </si>
+  <si>
+    <t>1#2#3#108</t>
+  </si>
+  <si>
+    <t>1#2#3#109</t>
+  </si>
+  <si>
+    <t>1#2#3#110</t>
+  </si>
+  <si>
+    <t>1#2#3#111</t>
+  </si>
+  <si>
+    <t>1#2#3#112</t>
+  </si>
+  <si>
+    <t>1#2#3#113</t>
+  </si>
+  <si>
+    <t>1#2#3#114</t>
+  </si>
+  <si>
+    <t>1#2#3#115</t>
+  </si>
+  <si>
+    <t>1#2#3#116</t>
+  </si>
+  <si>
+    <t>1#2#3#117</t>
+  </si>
+  <si>
+    <t>1#2#3#118</t>
+  </si>
+  <si>
+    <t>1#2#3#119</t>
+  </si>
+  <si>
+    <t>1#2#3#120</t>
+  </si>
+  <si>
+    <t>1#2#3#121</t>
+  </si>
+  <si>
+    <t>1#2#3#122</t>
+  </si>
+  <si>
+    <t>1#2#3#123</t>
+  </si>
+  <si>
+    <t>1#2#3#124</t>
+  </si>
+  <si>
+    <t>1#2#3#125</t>
+  </si>
+  <si>
+    <t>1#2#3#126</t>
+  </si>
+  <si>
+    <t>1#2#3#127</t>
+  </si>
+  <si>
+    <t>1#2#3#128</t>
+  </si>
+  <si>
+    <t>1#2#3#129</t>
+  </si>
+  <si>
+    <t>1#2#3#130</t>
+  </si>
+  <si>
+    <t>1#2#3#131</t>
+  </si>
+  <si>
+    <t>1#2#3#132</t>
+  </si>
+  <si>
+    <t>1#2#3#133</t>
+  </si>
+  <si>
+    <t>1#2#3#134</t>
+  </si>
+  <si>
+    <t>1#2#3#135</t>
+  </si>
+  <si>
+    <t>1#2#3#136</t>
+  </si>
+  <si>
+    <t>1#2#3#137</t>
+  </si>
+  <si>
+    <t>1#2#3#138</t>
+  </si>
+  <si>
+    <t>1#2#3#139</t>
+  </si>
+  <si>
+    <t>1#2#3#140</t>
+  </si>
+  <si>
+    <t>1#2#3#141</t>
+  </si>
+  <si>
+    <t>1#2#3#142</t>
+  </si>
+  <si>
+    <t>1#2#3#143</t>
+  </si>
+  <si>
+    <t>1#2#3#144</t>
+  </si>
+  <si>
+    <t>1#2#3#145</t>
+  </si>
+  <si>
+    <t>1#2#3#146</t>
+  </si>
+  <si>
+    <t>1#2#3#147</t>
+  </si>
+  <si>
+    <t>1#2#3#148</t>
+  </si>
+  <si>
+    <t>1#2#3#149</t>
+  </si>
+  <si>
+    <t>1#2#3#150</t>
+  </si>
+  <si>
+    <t>1#2#3#151</t>
+  </si>
+  <si>
+    <t>1#2#3#152</t>
+  </si>
+  <si>
+    <t>1#2#3#153</t>
+  </si>
+  <si>
+    <t>1#2#3#154</t>
+  </si>
+  <si>
+    <t>1#2#3#155</t>
+  </si>
+  <si>
+    <t>1#2#3#156</t>
+  </si>
+  <si>
+    <t>1#2#3#157</t>
+  </si>
+  <si>
+    <t>1#2#3#158</t>
+  </si>
+  <si>
+    <t>1#2#3#159</t>
+  </si>
+  <si>
+    <t>1#2#3#160</t>
+  </si>
+  <si>
+    <t>1#2#3#161</t>
+  </si>
+  <si>
+    <t>1#2#3#162</t>
+  </si>
+  <si>
+    <t>1#2#3#163</t>
+  </si>
+  <si>
+    <t>1#2#3#164</t>
+  </si>
+  <si>
+    <t>1#2#3#165</t>
+  </si>
+  <si>
+    <t>1#2#3#166</t>
+  </si>
+  <si>
+    <t>1#2#3#167</t>
+  </si>
+  <si>
+    <t>1#2#3#168</t>
+  </si>
+  <si>
+    <t>1#2#3#169</t>
+  </si>
+  <si>
+    <t>1#2#3#170</t>
+  </si>
+  <si>
+    <t>1#2#3#171</t>
+  </si>
+  <si>
+    <t>1#2#3#172</t>
+  </si>
+  <si>
+    <t>1#2#3#173</t>
+  </si>
+  <si>
+    <t>1#2#3#174</t>
+  </si>
+  <si>
+    <t>1#2#3#175</t>
+  </si>
+  <si>
+    <t>1#2#3#176</t>
+  </si>
+  <si>
+    <t>1#2#3#177</t>
+  </si>
+  <si>
+    <t>1#2#3#178</t>
+  </si>
+  <si>
+    <t>1#2#3#179</t>
+  </si>
+  <si>
+    <t>1#2#3#180</t>
+  </si>
+  <si>
+    <t>1#2#3#181</t>
+  </si>
+  <si>
+    <t>1#2#3#182</t>
+  </si>
+  <si>
+    <t>1#2#3#183</t>
+  </si>
+  <si>
+    <t>1#2#3#184</t>
+  </si>
+  <si>
+    <t>1#2#3#185</t>
+  </si>
+  <si>
+    <t>1#2#3#186</t>
+  </si>
+  <si>
+    <t>1#2#3#187</t>
+  </si>
+  <si>
+    <t>1#2#3#188</t>
+  </si>
+  <si>
+    <t>1#2#3#189</t>
+  </si>
+  <si>
+    <t>1#2#3#190</t>
+  </si>
+  <si>
+    <t>1#2#3#191</t>
+  </si>
+  <si>
+    <t>1#2#3#192</t>
+  </si>
+  <si>
+    <t>1#2#3#193</t>
+  </si>
+  <si>
+    <t>1#2#3#194</t>
+  </si>
+  <si>
+    <t>1#2#3#195</t>
+  </si>
+  <si>
+    <t>1#2#3#196</t>
+  </si>
+  <si>
+    <t>1#2#3#197</t>
+  </si>
+  <si>
+    <t>1#2#3#198</t>
+  </si>
+  <si>
+    <t>1#2#3#199</t>
+  </si>
+  <si>
+    <t>1#2#3#200</t>
+  </si>
+  <si>
+    <t>1#2#3#201</t>
+  </si>
+  <si>
+    <t>1#2#3#202</t>
+  </si>
+  <si>
+    <t>1#2#3#203</t>
+  </si>
+  <si>
+    <t>1#2#3#204</t>
+  </si>
+  <si>
+    <t>1#2#3#205</t>
+  </si>
+  <si>
+    <t>1#2#3#206</t>
+  </si>
+  <si>
+    <t>1#2#3#207</t>
+  </si>
+  <si>
+    <t>1#2#3#208</t>
+  </si>
+  <si>
+    <t>1#2#3#209</t>
+  </si>
+  <si>
+    <t>1#2#3#210</t>
+  </si>
+  <si>
+    <t>1#2#3#211</t>
+  </si>
+  <si>
+    <t>1#2#3#212</t>
+  </si>
+  <si>
+    <t>1#2#3#213</t>
+  </si>
+  <si>
+    <t>1#2#3#214</t>
+  </si>
+  <si>
+    <t>1#2#3#215</t>
+  </si>
+  <si>
+    <t>1#2#3#216</t>
+  </si>
+  <si>
+    <t>1#2#3#217</t>
+  </si>
+  <si>
+    <t>1#2#3#218</t>
+  </si>
+  <si>
+    <t>1#2#3#219</t>
+  </si>
+  <si>
+    <t>1#2#3#220</t>
+  </si>
+  <si>
+    <t>1#2#3#221</t>
+  </si>
+  <si>
+    <t>1#2#3#222</t>
+  </si>
+  <si>
+    <t>1#2#3#223</t>
+  </si>
+  <si>
+    <t>1#2#3#224</t>
+  </si>
+  <si>
+    <t>1#2#3#225</t>
+  </si>
+  <si>
+    <t>1#2#3#226</t>
+  </si>
+  <si>
+    <t>1#2#3#227</t>
+  </si>
+  <si>
+    <t>1#2#3#228</t>
+  </si>
+  <si>
+    <t>1#2#3#229</t>
+  </si>
+  <si>
+    <t>1#2#3#230</t>
+  </si>
+  <si>
+    <t>1#2#3#231</t>
+  </si>
+  <si>
+    <t>1#2#3#232</t>
+  </si>
+  <si>
+    <t>1#2#3#233</t>
+  </si>
+  <si>
+    <t>1#2#3#234</t>
+  </si>
+  <si>
+    <t>1#2#3#235</t>
+  </si>
+  <si>
+    <t>1#2#3#236</t>
+  </si>
+  <si>
+    <t>1#2#3#237</t>
+  </si>
+  <si>
+    <t>1#2#3#238</t>
+  </si>
+  <si>
+    <t>1#2#3#239</t>
+  </si>
+  <si>
+    <t>1#2#3#240</t>
+  </si>
+  <si>
+    <t>1#2#3#241</t>
+  </si>
+  <si>
+    <t>1#2#3#242</t>
+  </si>
+  <si>
+    <t>1#2#3#243</t>
+  </si>
+  <si>
+    <t>1#2#3#244</t>
+  </si>
+  <si>
+    <t>1#2#3#245</t>
+  </si>
+  <si>
+    <t>1#2#3#246</t>
+  </si>
+  <si>
+    <t>1#2#3#247</t>
+  </si>
+  <si>
+    <t>1#2#3#248</t>
+  </si>
+  <si>
+    <t>1#2#3#249</t>
+  </si>
+  <si>
+    <t>1#2#3#250</t>
+  </si>
+  <si>
+    <t>1#2#3#251</t>
+  </si>
+  <si>
+    <t>1#2#3#252</t>
+  </si>
+  <si>
+    <t>1#2#3#253</t>
+  </si>
+  <si>
+    <t>1#2#3#254</t>
+  </si>
+  <si>
+    <t>1#2#3#255</t>
+  </si>
+  <si>
+    <t>1#2#3#256</t>
+  </si>
+  <si>
+    <t>1#2#3#257</t>
+  </si>
+  <si>
+    <t>1#2#3#258</t>
+  </si>
+  <si>
+    <t>1#2#3#259</t>
+  </si>
+  <si>
+    <t>1#2#3#260</t>
+  </si>
+  <si>
+    <t>1#2#3#261</t>
+  </si>
+  <si>
+    <t>1#2#3#262</t>
+  </si>
+  <si>
+    <t>1#2#3#263</t>
+  </si>
+  <si>
+    <t>1#2#3#264</t>
+  </si>
+  <si>
+    <t>1#2#3#265</t>
+  </si>
+  <si>
+    <t>1#2#3#266</t>
+  </si>
+  <si>
+    <t>1#2#3#267</t>
+  </si>
+  <si>
+    <t>1#2#3#268</t>
+  </si>
+  <si>
+    <t>1#2#3#269</t>
+  </si>
+  <si>
+    <t>1#2#3#270</t>
+  </si>
+  <si>
+    <t>1#2#3#271</t>
+  </si>
+  <si>
+    <t>1#2#3#272</t>
+  </si>
+  <si>
+    <t>1#2#3#273</t>
+  </si>
+  <si>
+    <t>1#2#3#274</t>
+  </si>
+  <si>
+    <t>1#2#3#275</t>
+  </si>
+  <si>
+    <t>1#2#3#276</t>
+  </si>
+  <si>
+    <t>1#2#3#277</t>
+  </si>
+  <si>
+    <t>1#2#3#278</t>
+  </si>
+  <si>
+    <t>1#2#3#279</t>
+  </si>
+  <si>
+    <t>1#2#3#280</t>
+  </si>
+  <si>
+    <t>1#2#3#281</t>
+  </si>
+  <si>
+    <t>1#2#3#282</t>
+  </si>
+  <si>
+    <t>1#2#3#283</t>
+  </si>
+  <si>
+    <t>1#2#3#284</t>
+  </si>
+  <si>
+    <t>1#2#3#285</t>
+  </si>
+  <si>
+    <t>1#2#3#286</t>
+  </si>
+  <si>
+    <t>1#2#3#287</t>
+  </si>
+  <si>
+    <t>1#2#3#288</t>
+  </si>
+  <si>
+    <t>1#2#3#289</t>
+  </si>
+  <si>
+    <t>1#2#3#290</t>
+  </si>
+  <si>
+    <t>1#2#3#291</t>
+  </si>
+  <si>
+    <t>1#2#3#292</t>
+  </si>
+  <si>
+    <t>1#2#3#293</t>
+  </si>
+  <si>
+    <t>1#2#3#294</t>
+  </si>
+  <si>
+    <t>1#2#3#295</t>
+  </si>
+  <si>
+    <t>1#2#3#296</t>
+  </si>
+  <si>
+    <t>1#2#3#297</t>
+  </si>
+  <si>
+    <t>1#2#3#298</t>
+  </si>
+  <si>
+    <t>1#2#3#299</t>
+  </si>
+  <si>
+    <t>1#2#3#300</t>
+  </si>
+  <si>
+    <t>1#2#3#301</t>
+  </si>
+  <si>
+    <t>1#2#3#302</t>
+  </si>
+  <si>
+    <t>1#2#3#303</t>
+  </si>
+  <si>
+    <t>1#2#3#304</t>
+  </si>
+  <si>
+    <t>1#2#3#305</t>
+  </si>
+  <si>
+    <t>1#2#3#306</t>
+  </si>
+  <si>
+    <t>1#2#3#307</t>
+  </si>
+  <si>
+    <t>1#2#3#308</t>
+  </si>
+  <si>
+    <t>1#2#3#309</t>
+  </si>
+  <si>
+    <t>1#2#3#310</t>
+  </si>
+  <si>
+    <t>1#2#3#311</t>
+  </si>
+  <si>
+    <t>1#2#3#312</t>
+  </si>
+  <si>
+    <t>1#2#3#313</t>
+  </si>
+  <si>
+    <t>1#2#3#314</t>
+  </si>
+  <si>
+    <t>1#2#3#315</t>
+  </si>
+  <si>
+    <t>1#2#3#316</t>
+  </si>
+  <si>
+    <t>1#2#3#317</t>
+  </si>
+  <si>
+    <t>1#2#3#318</t>
+  </si>
+  <si>
+    <t>1#2#3#319</t>
+  </si>
+  <si>
+    <t>1#2#3#320</t>
+  </si>
+  <si>
+    <t>1#2#3#321</t>
+  </si>
+  <si>
+    <t>1#2#3#322</t>
+  </si>
+  <si>
+    <t>1#2#3#323</t>
+  </si>
+  <si>
+    <t>1#2#3#324</t>
+  </si>
+  <si>
+    <t>1#2#3#325</t>
+  </si>
+  <si>
+    <t>1#2#3#326</t>
+  </si>
+  <si>
+    <t>1#2#3#327</t>
+  </si>
+  <si>
+    <t>1#2#3#328</t>
+  </si>
+  <si>
+    <t>1#2#3#329</t>
+  </si>
+  <si>
+    <t>1#2#3#330</t>
+  </si>
+  <si>
+    <t>1#2#3#331</t>
+  </si>
+  <si>
+    <t>1#2#3#332</t>
+  </si>
+  <si>
+    <t>1#2#3#333</t>
+  </si>
+  <si>
+    <t>1#2#3#334</t>
+  </si>
+  <si>
+    <t>1#2#3#335</t>
+  </si>
+  <si>
+    <t>1#2#3#336</t>
+  </si>
+  <si>
+    <t>1#2#3#337</t>
+  </si>
+  <si>
+    <t>1#2#3#338</t>
+  </si>
+  <si>
+    <t>1#2#3#339</t>
+  </si>
+  <si>
+    <t>1#2#3#340</t>
+  </si>
+  <si>
+    <t>1#2#3#341</t>
+  </si>
+  <si>
+    <t>1#2#3#342</t>
+  </si>
+  <si>
+    <t>1#2#3#343</t>
+  </si>
+  <si>
+    <t>1#2#3#344</t>
+  </si>
+  <si>
+    <t>1#2#3#345</t>
+  </si>
+  <si>
+    <t>1#2#3#346</t>
+  </si>
+  <si>
+    <t>1#2#3#347</t>
+  </si>
+  <si>
+    <t>1#2#3#348</t>
+  </si>
+  <si>
+    <t>1#2#3#349</t>
+  </si>
+  <si>
+    <t>1#2#3#350</t>
+  </si>
+  <si>
+    <t>1#2#3#351</t>
+  </si>
+  <si>
+    <t>1#2#3#352</t>
+  </si>
+  <si>
+    <t>1#2#3#353</t>
+  </si>
+  <si>
+    <t>1#2#3#354</t>
+  </si>
+  <si>
+    <t>1#2#3#355</t>
+  </si>
+  <si>
+    <t>1#2#3#356</t>
+  </si>
+  <si>
+    <t>1#2#3#357</t>
+  </si>
+  <si>
+    <t>1#2#3#358</t>
+  </si>
+  <si>
+    <t>1#2#3#359</t>
+  </si>
+  <si>
+    <t>1#2#3#360</t>
+  </si>
+  <si>
+    <t>1#2#3#361</t>
+  </si>
+  <si>
+    <t>1#2#3#362</t>
+  </si>
+  <si>
+    <t>1#2#3#363</t>
+  </si>
+  <si>
+    <t>1#2#3#364</t>
+  </si>
+  <si>
+    <t>1#2#3#365</t>
+  </si>
+  <si>
+    <t>1#2#3#366</t>
+  </si>
+  <si>
+    <t>1#2#3#367</t>
+  </si>
+  <si>
+    <t>1#2#3#368</t>
+  </si>
+  <si>
+    <t>1#2#3#369</t>
+  </si>
+  <si>
+    <t>1#2#3#370</t>
+  </si>
+  <si>
+    <t>1#2#3#371</t>
+  </si>
+  <si>
+    <t>1#2#3#372</t>
+  </si>
+  <si>
+    <t>1#2#3#373</t>
+  </si>
+  <si>
+    <t>1#2#3#374</t>
+  </si>
+  <si>
+    <t>1#2#3#375</t>
+  </si>
+  <si>
+    <t>1#2#3#376</t>
+  </si>
+  <si>
+    <t>1#2#3#377</t>
+  </si>
+  <si>
+    <t>1#2#3#378</t>
+  </si>
+  <si>
+    <t>1#2#3#379</t>
+  </si>
+  <si>
+    <t>1#2#3#380</t>
+  </si>
+  <si>
+    <t>1#2#3#381</t>
+  </si>
+  <si>
+    <t>1#2#3#382</t>
+  </si>
+  <si>
+    <t>1#2#3#383</t>
+  </si>
+  <si>
+    <t>1#2#3#384</t>
+  </si>
+  <si>
+    <t>1#2#3#385</t>
+  </si>
+  <si>
+    <t>1#2#3#386</t>
+  </si>
+  <si>
+    <t>1#2#3#387</t>
+  </si>
+  <si>
+    <t>1#2#3#388</t>
+  </si>
+  <si>
+    <t>1#2#3#389</t>
+  </si>
+  <si>
+    <t>1#2#3#390</t>
+  </si>
+  <si>
+    <t>1#2#3#391</t>
+  </si>
+  <si>
+    <t>1#2#3#392</t>
+  </si>
+  <si>
+    <t>1#2#3#393</t>
+  </si>
+  <si>
+    <t>1#2#3#394</t>
+  </si>
+  <si>
+    <t>1#2#3#395</t>
+  </si>
+  <si>
+    <t>1#2#3#396</t>
+  </si>
+  <si>
+    <t>1#2#3#397</t>
+  </si>
+  <si>
+    <t>1#2#3#398</t>
+  </si>
+  <si>
+    <t>1#2#3#399</t>
+  </si>
+  <si>
+    <t>1#2#3#400</t>
+  </si>
+  <si>
+    <t>1#2#3#401</t>
+  </si>
+  <si>
+    <t>1#2#3#402</t>
+  </si>
+  <si>
+    <t>1#2#3#403</t>
+  </si>
+  <si>
+    <t>1#2#3#404</t>
+  </si>
+  <si>
+    <t>1#2#3#405</t>
+  </si>
+  <si>
+    <t>1#2#3#406</t>
+  </si>
+  <si>
+    <t>1#2#3#407</t>
+  </si>
+  <si>
+    <t>1#2#3#408</t>
+  </si>
+  <si>
+    <t>1#2#3#409</t>
+  </si>
+  <si>
+    <t>1#2#3#410</t>
+  </si>
+  <si>
+    <t>1#2#3#411</t>
+  </si>
+  <si>
+    <t>1#2#3#412</t>
+  </si>
+  <si>
+    <t>1#2#3#413</t>
+  </si>
+  <si>
+    <t>1#2#3#414</t>
+  </si>
+  <si>
+    <t>1#2#3#415</t>
+  </si>
+  <si>
+    <t>1#2#3#416</t>
+  </si>
+  <si>
+    <t>1#2#3#417</t>
+  </si>
+  <si>
+    <t>1#2#3#418</t>
+  </si>
+  <si>
+    <t>1#2#3#419</t>
+  </si>
+  <si>
+    <t>1#2#3#420</t>
+  </si>
+  <si>
+    <t>1#2#3#421</t>
+  </si>
+  <si>
+    <t>1#2#3#422</t>
+  </si>
+  <si>
+    <t>1#2#3#423</t>
+  </si>
+  <si>
+    <t>1#2#3#424</t>
+  </si>
+  <si>
+    <t>1#2#3#425</t>
+  </si>
+  <si>
+    <t>1#2#3#426</t>
+  </si>
+  <si>
+    <t>1#2#3#427</t>
+  </si>
+  <si>
+    <t>1#2#3#428</t>
+  </si>
+  <si>
+    <t>1#2#3#429</t>
+  </si>
+  <si>
+    <t>1#2#3#430</t>
+  </si>
+  <si>
+    <t>1#2#3#431</t>
+  </si>
+  <si>
+    <t>1#2#3#432</t>
+  </si>
+  <si>
+    <t>1#2#3#433</t>
+  </si>
+  <si>
+    <t>1#2#3#434</t>
+  </si>
+  <si>
+    <t>1#2#3#435</t>
+  </si>
+  <si>
+    <t>1#2#3#436</t>
+  </si>
+  <si>
+    <t>1#2#3#437</t>
+  </si>
+  <si>
+    <t>1#2#3#438</t>
+  </si>
+  <si>
+    <t>1#2#3#439</t>
+  </si>
+  <si>
+    <t>1#2#3#440</t>
+  </si>
+  <si>
+    <t>1#2#3#441</t>
+  </si>
+  <si>
+    <t>1#2#3#442</t>
+  </si>
+  <si>
+    <t>1#2#3#443</t>
+  </si>
+  <si>
+    <t>1#2#3#444</t>
+  </si>
+  <si>
+    <t>1#2#3#445</t>
+  </si>
+  <si>
+    <t>1#2#3#446</t>
+  </si>
+  <si>
+    <t>1#2#3#447</t>
+  </si>
+  <si>
+    <t>1#2#3#448</t>
+  </si>
+  <si>
+    <t>1#2#3#449</t>
+  </si>
+  <si>
+    <t>1#2#3#450</t>
+  </si>
+  <si>
+    <t>1#2#3#451</t>
+  </si>
+  <si>
+    <t>1#2#3#452</t>
+  </si>
+  <si>
+    <t>1#2#3#453</t>
+  </si>
+  <si>
+    <t>1#2#3#454</t>
+  </si>
+  <si>
+    <t>1#2#3#455</t>
+  </si>
+  <si>
+    <t>1#2#3#456</t>
+  </si>
+  <si>
+    <t>1#2#3#457</t>
+  </si>
+  <si>
+    <t>1#2#3#458</t>
+  </si>
+  <si>
+    <t>1#2#3#459</t>
+  </si>
+  <si>
+    <t>1#2#3#460</t>
+  </si>
+  <si>
+    <t>1#2#3#461</t>
+  </si>
+  <si>
+    <t>1#2#3#462</t>
+  </si>
+  <si>
+    <t>1#2#3#463</t>
+  </si>
+  <si>
+    <t>1#2#3#464</t>
+  </si>
+  <si>
+    <t>1#2#3#465</t>
+  </si>
+  <si>
+    <t>1#2#3#466</t>
+  </si>
+  <si>
+    <t>1#2#3#467</t>
+  </si>
+  <si>
+    <t>1#2#3#468</t>
+  </si>
+  <si>
+    <t>1#2#3#469</t>
+  </si>
+  <si>
+    <t>1#2#3#470</t>
+  </si>
+  <si>
+    <t>1#2#3#471</t>
+  </si>
+  <si>
+    <t>1#2#3#472</t>
+  </si>
+  <si>
+    <t>1#2#3#473</t>
+  </si>
+  <si>
+    <t>1#2#3#474</t>
+  </si>
+  <si>
+    <t>1#2#3#475</t>
+  </si>
+  <si>
+    <t>1#2#3#476</t>
+  </si>
+  <si>
+    <t>1#2#3#477</t>
+  </si>
+  <si>
+    <t>1#2#3#478</t>
+  </si>
+  <si>
+    <t>1#2#3#479</t>
+  </si>
+  <si>
+    <t>1#2#3#480</t>
+  </si>
+  <si>
+    <t>1#2#3#481</t>
+  </si>
+  <si>
+    <t>1#2#3#482</t>
+  </si>
+  <si>
+    <t>1#2#3#483</t>
+  </si>
+  <si>
+    <t>1#2#3#484</t>
+  </si>
+  <si>
+    <t>1#2#3#485</t>
+  </si>
+  <si>
+    <t>1#2#3#486</t>
+  </si>
+  <si>
+    <t>1#2#3#487</t>
+  </si>
+  <si>
+    <t>1#2#3#488</t>
+  </si>
+  <si>
+    <t>1#2#3#489</t>
+  </si>
+  <si>
+    <t>1#2#3#490</t>
+  </si>
+  <si>
+    <t>1#2#3#491</t>
+  </si>
+  <si>
+    <t>1#2#3#492</t>
+  </si>
+  <si>
+    <t>1#2#3#493</t>
+  </si>
+  <si>
+    <t>1#2#3#494</t>
+  </si>
+  <si>
+    <t>1#2#3#495</t>
+  </si>
+  <si>
+    <t>1#2#3#496</t>
+  </si>
+  <si>
+    <t>1#2#3#497</t>
+  </si>
+  <si>
+    <t>1#2#3#498</t>
+  </si>
+  <si>
+    <t>1#2#3#499</t>
+  </si>
+  <si>
+    <t>1#2#3#500</t>
+  </si>
+  <si>
+    <t>1#2#3#501</t>
+  </si>
+  <si>
+    <t>1#2#3#502</t>
+  </si>
+  <si>
+    <t>1#2#3#503</t>
+  </si>
+  <si>
+    <t>1#2#3#504</t>
+  </si>
+  <si>
+    <t>1#2#3#505</t>
+  </si>
+  <si>
+    <t>1#2#3#506</t>
+  </si>
+  <si>
+    <t>1#2#3#507</t>
+  </si>
+  <si>
+    <t>1#2#3#508</t>
+  </si>
+  <si>
+    <t>1#2#3#509</t>
+  </si>
+  <si>
+    <t>1#2#3#510</t>
+  </si>
+  <si>
+    <t>1#2#3#511</t>
+  </si>
+  <si>
+    <t>1#2#3#512</t>
+  </si>
+  <si>
+    <t>1#2#3#513</t>
+  </si>
+  <si>
+    <t>1#2#3#514</t>
+  </si>
+  <si>
+    <t>1#2#3#515</t>
+  </si>
+  <si>
+    <t>1#2#3#516</t>
+  </si>
+  <si>
+    <t>1#2#3#517</t>
+  </si>
+  <si>
+    <t>1#2#3#518</t>
+  </si>
+  <si>
+    <t>1#2#3#519</t>
+  </si>
+  <si>
+    <t>1#2#3#520</t>
+  </si>
+  <si>
+    <t>1#2#3#521</t>
+  </si>
+  <si>
+    <t>1#2#3#522</t>
+  </si>
+  <si>
+    <t>1#2#3#523</t>
+  </si>
+  <si>
+    <t>1#2#3#524</t>
+  </si>
+  <si>
+    <t>1#2#3#525</t>
+  </si>
+  <si>
+    <t>1#2#3#526</t>
+  </si>
+  <si>
+    <t>1#2#3#527</t>
+  </si>
+  <si>
+    <t>1#2#3#528</t>
+  </si>
+  <si>
+    <t>1#2#3#529</t>
+  </si>
+  <si>
+    <t>1#2#3#530</t>
+  </si>
+  <si>
+    <t>1#2#3#531</t>
+  </si>
+  <si>
+    <t>1#2#3#532</t>
+  </si>
+  <si>
+    <t>1#2#3#533</t>
+  </si>
+  <si>
+    <t>1#2#3#534</t>
+  </si>
+  <si>
+    <t>1#2#3#535</t>
+  </si>
+  <si>
+    <t>1#2#3#536</t>
+  </si>
+  <si>
+    <t>1#2#3#537</t>
+  </si>
+  <si>
+    <t>1#2#3#538</t>
+  </si>
+  <si>
+    <t>1#2#3#539</t>
+  </si>
+  <si>
+    <t>1#2#3#540</t>
+  </si>
+  <si>
+    <t>1#2#3#541</t>
+  </si>
+  <si>
+    <t>1#2#3#542</t>
+  </si>
+  <si>
+    <t>1#2#3#543</t>
+  </si>
+  <si>
+    <t>1#2#3#544</t>
+  </si>
+  <si>
+    <t>1#2#3#545</t>
+  </si>
+  <si>
+    <t>1#2#3#546</t>
+  </si>
+  <si>
+    <t>1#2#3#547</t>
+  </si>
+  <si>
+    <t>1#2#3#548</t>
+  </si>
+  <si>
+    <t>1#2#3#549</t>
+  </si>
+  <si>
+    <t>1#2#3#550</t>
+  </si>
+  <si>
+    <t>1#2#3#551</t>
+  </si>
+  <si>
+    <t>1#2#3#552</t>
+  </si>
+  <si>
+    <t>1#2#3#553</t>
+  </si>
+  <si>
+    <t>1#2#3#554</t>
+  </si>
+  <si>
+    <t>1#2#3#555</t>
+  </si>
+  <si>
+    <t>1#2#3#556</t>
+  </si>
+  <si>
+    <t>1#2#3#557</t>
+  </si>
+  <si>
+    <t>1#2#3#558</t>
+  </si>
+  <si>
+    <t>1#2#3#559</t>
+  </si>
+  <si>
+    <t>1#2#3#560</t>
+  </si>
+  <si>
+    <t>1#2#3#561</t>
+  </si>
+  <si>
+    <t>1#2#3#562</t>
+  </si>
+  <si>
+    <t>1#2#3#563</t>
+  </si>
+  <si>
+    <t>1#2#3#564</t>
+  </si>
+  <si>
+    <t>1#2#3#565</t>
+  </si>
+  <si>
+    <t>1#2#3#566</t>
+  </si>
+  <si>
+    <t>1#2#3#567</t>
+  </si>
+  <si>
+    <t>1#2#3#568</t>
+  </si>
+  <si>
+    <t>1#2#3#569</t>
+  </si>
+  <si>
+    <t>1#2#3#570</t>
+  </si>
+  <si>
+    <t>1#2#3#571</t>
+  </si>
+  <si>
+    <t>1#2#3#572</t>
+  </si>
+  <si>
+    <t>1#2#3#573</t>
+  </si>
+  <si>
+    <t>1#2#3#574</t>
+  </si>
+  <si>
+    <t>1#2#3#575</t>
+  </si>
+  <si>
+    <t>1#2#3#576</t>
+  </si>
+  <si>
+    <t>1#2#3#577</t>
+  </si>
+  <si>
+    <t>1#2#3#578</t>
+  </si>
+  <si>
+    <t>1#2#3#579</t>
+  </si>
+  <si>
+    <t>1#2#3#580</t>
+  </si>
+  <si>
+    <t>1#2#3#581</t>
+  </si>
+  <si>
+    <t>1#2#3#582</t>
+  </si>
+  <si>
+    <t>1#2#3#583</t>
+  </si>
+  <si>
+    <t>1#2#3#584</t>
+  </si>
+  <si>
+    <t>1#2#3#585</t>
+  </si>
+  <si>
+    <t>1#2#3#586</t>
+  </si>
+  <si>
+    <t>1#2#3#587</t>
+  </si>
+  <si>
+    <t>1#2#3#588</t>
+  </si>
+  <si>
+    <t>1#2#3#589</t>
+  </si>
+  <si>
+    <t>1#2#3#590</t>
+  </si>
+  <si>
+    <t>1#2#3#591</t>
+  </si>
+  <si>
+    <t>1#2#3#592</t>
+  </si>
+  <si>
+    <t>1#2#3#593</t>
+  </si>
+  <si>
+    <t>1#2#3#594</t>
+  </si>
+  <si>
+    <t>1#2#3#595</t>
+  </si>
+  <si>
+    <t>1#2#3#596</t>
+  </si>
+  <si>
+    <t>1#2#3#597</t>
+  </si>
+  <si>
+    <t>1#2#3#598</t>
+  </si>
+  <si>
+    <t>1#2#3#599</t>
+  </si>
+  <si>
+    <t>1#2#3#600</t>
+  </si>
+  <si>
+    <t>1#2#3#601</t>
+  </si>
+  <si>
+    <t>1#2#3#602</t>
+  </si>
+  <si>
+    <t>1#2#3#603</t>
+  </si>
+  <si>
+    <t>1#2#3#604</t>
+  </si>
+  <si>
+    <t>1#2#3#605</t>
+  </si>
+  <si>
+    <t>1#2#3#606</t>
+  </si>
+  <si>
+    <t>1#2#3#607</t>
+  </si>
+  <si>
+    <t>1#2#3#608</t>
+  </si>
+  <si>
+    <t>1#2#3#609</t>
+  </si>
+  <si>
+    <t>1#2#3#610</t>
+  </si>
+  <si>
+    <t>1#2#3#611</t>
+  </si>
+  <si>
+    <t>1#2#3#612</t>
+  </si>
+  <si>
+    <t>1#2#3#613</t>
+  </si>
+  <si>
+    <t>1#2#3#614</t>
+  </si>
+  <si>
+    <t>1#2#3#615</t>
+  </si>
+  <si>
+    <t>1#2#3#616</t>
+  </si>
+  <si>
+    <t>1#2#3#617</t>
+  </si>
+  <si>
+    <t>1#2#3#618</t>
+  </si>
+  <si>
+    <t>1#2#3#619</t>
+  </si>
+  <si>
+    <t>1#2#3#620</t>
+  </si>
+  <si>
+    <t>1#2#3#621</t>
+  </si>
+  <si>
+    <t>1#2#3#622</t>
+  </si>
+  <si>
+    <t>1#2#3#623</t>
+  </si>
+  <si>
+    <t>1#2#3#624</t>
+  </si>
+  <si>
+    <t>1#2#3#625</t>
+  </si>
+  <si>
+    <t>1#2#3#626</t>
+  </si>
+  <si>
+    <t>1#2#3#627</t>
+  </si>
+  <si>
+    <t>1#2#3#628</t>
+  </si>
+  <si>
+    <t>1#2#3#629</t>
+  </si>
+  <si>
+    <t>1#2#3#630</t>
+  </si>
+  <si>
+    <t>1#2#3#631</t>
+  </si>
+  <si>
+    <t>1#2#3#632</t>
+  </si>
+  <si>
+    <t>1#2#3#633</t>
+  </si>
+  <si>
+    <t>1#2#3#634</t>
+  </si>
+  <si>
+    <t>1#2#3#635</t>
+  </si>
+  <si>
+    <t>1#2#3#636</t>
+  </si>
+  <si>
+    <t>1#2#3#637</t>
+  </si>
+  <si>
+    <t>1#2#3#638</t>
+  </si>
+  <si>
+    <t>1#2#3#639</t>
+  </si>
+  <si>
+    <t>1#2#3#640</t>
+  </si>
+  <si>
+    <t>1#2#3#641</t>
+  </si>
+  <si>
+    <t>1#2#3#642</t>
+  </si>
+  <si>
+    <t>1#2#3#643</t>
+  </si>
+  <si>
+    <t>1#2#3#644</t>
+  </si>
+  <si>
+    <t>1#2#3#645</t>
+  </si>
+  <si>
+    <t>1#2#3#646</t>
+  </si>
+  <si>
+    <t>1#2#3#647</t>
+  </si>
+  <si>
+    <t>1#2#3#648</t>
+  </si>
+  <si>
+    <t>1#2#3#649</t>
+  </si>
+  <si>
+    <t>1#2#3#650</t>
+  </si>
+  <si>
+    <t>1#2#3#651</t>
+  </si>
+  <si>
+    <t>1#2#3#652</t>
+  </si>
+  <si>
+    <t>1#2#3#653</t>
+  </si>
+  <si>
+    <t>1#2#3#654</t>
+  </si>
+  <si>
+    <t>1#2#3#655</t>
+  </si>
+  <si>
+    <t>1#2#3#656</t>
+  </si>
+  <si>
+    <t>1#2#3#657</t>
+  </si>
+  <si>
+    <t>1#2#3#658</t>
+  </si>
+  <si>
+    <t>1#2#3#659</t>
+  </si>
+  <si>
+    <t>1#2#3#660</t>
+  </si>
+  <si>
+    <t>1#2#3#661</t>
+  </si>
+  <si>
+    <t>1#2#3#662</t>
+  </si>
+  <si>
+    <t>1#2#3#663</t>
+  </si>
+  <si>
+    <t>1#2#3#664</t>
+  </si>
+  <si>
+    <t>1#2#3#665</t>
+  </si>
+  <si>
+    <t>1#2#3#666</t>
+  </si>
+  <si>
+    <t>1#2#3#667</t>
+  </si>
+  <si>
+    <t>1#2#3#668</t>
+  </si>
+  <si>
+    <t>1#2#3#669</t>
+  </si>
+  <si>
+    <t>1#2#3#670</t>
+  </si>
+  <si>
+    <t>1#2#3#671</t>
+  </si>
+  <si>
+    <t>1#2#3#672</t>
+  </si>
+  <si>
+    <t>1#2#3#673</t>
+  </si>
+  <si>
+    <t>1#2#3#674</t>
+  </si>
+  <si>
+    <t>1#2#3#675</t>
+  </si>
+  <si>
+    <t>1#2#3#676</t>
+  </si>
+  <si>
+    <t>1#2#3#677</t>
+  </si>
+  <si>
+    <t>1#2#3#678</t>
+  </si>
+  <si>
+    <t>1#2#3#679</t>
+  </si>
+  <si>
+    <t>1#2#3#680</t>
+  </si>
+  <si>
+    <t>1#2#3#681</t>
+  </si>
+  <si>
+    <t>1#2#3#682</t>
+  </si>
+  <si>
+    <t>1#2#3#683</t>
+  </si>
+  <si>
+    <t>1#2#3#684</t>
+  </si>
+  <si>
+    <t>1#2#3#685</t>
+  </si>
+  <si>
+    <t>1#2#3#686</t>
+  </si>
+  <si>
+    <t>1#2#3#687</t>
+  </si>
+  <si>
+    <t>1#2#3#688</t>
+  </si>
+  <si>
+    <t>1#2#3#689</t>
+  </si>
+  <si>
+    <t>1#2#3#690</t>
+  </si>
+  <si>
+    <t>1#2#3#691</t>
+  </si>
+  <si>
+    <t>1#2#3#692</t>
+  </si>
+  <si>
+    <t>1#2#3#693</t>
+  </si>
+  <si>
+    <t>1#2#3#694</t>
+  </si>
+  <si>
+    <t>1#2#3#695</t>
+  </si>
+  <si>
+    <t>1#2#3#696</t>
+  </si>
+  <si>
+    <t>1#2#3#697</t>
+  </si>
+  <si>
+    <t>1#2#3#698</t>
+  </si>
+  <si>
+    <t>1#2#3#699</t>
+  </si>
+  <si>
+    <t>1#2#3#700</t>
+  </si>
+  <si>
+    <t>1#2#3#701</t>
+  </si>
+  <si>
+    <t>1#2#3#702</t>
+  </si>
+  <si>
+    <t>1#2#3#703</t>
+  </si>
+  <si>
+    <t>1#2#3#704</t>
+  </si>
+  <si>
+    <t>1#2#3#705</t>
+  </si>
+  <si>
+    <t>1#2#3#706</t>
+  </si>
+  <si>
+    <t>1#2#3#707</t>
+  </si>
+  <si>
+    <t>1#2#3#708</t>
+  </si>
+  <si>
+    <t>1#2#3#709</t>
+  </si>
+  <si>
+    <t>1#2#3#710</t>
+  </si>
+  <si>
+    <t>1#2#3#711</t>
+  </si>
+  <si>
+    <t>1#2#3#712</t>
+  </si>
+  <si>
+    <t>1#2#3#713</t>
+  </si>
+  <si>
+    <t>1#2#3#714</t>
+  </si>
+  <si>
+    <t>1#2#3#715</t>
+  </si>
+  <si>
+    <t>1#2#3#716</t>
+  </si>
+  <si>
+    <t>1#2#3#717</t>
+  </si>
+  <si>
+    <t>1#2#3#718</t>
+  </si>
+  <si>
+    <t>1#2#3#719</t>
+  </si>
+  <si>
+    <t>1#2#3#720</t>
+  </si>
+  <si>
+    <t>1#2#3#721</t>
+  </si>
+  <si>
+    <t>1#2#3#722</t>
+  </si>
+  <si>
+    <t>1#2#3#723</t>
+  </si>
+  <si>
+    <t>1#2#3#724</t>
+  </si>
+  <si>
+    <t>1#2#3#725</t>
+  </si>
+  <si>
+    <t>1#2#3#726</t>
+  </si>
+  <si>
+    <t>1#2#3#727</t>
+  </si>
+  <si>
+    <t>1#2#3#728</t>
+  </si>
+  <si>
+    <t>1#2#3#729</t>
+  </si>
+  <si>
+    <t>1#2#3#730</t>
+  </si>
+  <si>
+    <t>1#2#3#731</t>
+  </si>
+  <si>
+    <t>1#2#3#732</t>
+  </si>
+  <si>
+    <t>1#2#3#733</t>
+  </si>
+  <si>
+    <t>1#2#3#734</t>
+  </si>
+  <si>
+    <t>1#2#3#735</t>
+  </si>
+  <si>
+    <t>1#2#3#736</t>
+  </si>
+  <si>
+    <t>1#2#3#737</t>
+  </si>
+  <si>
+    <t>1#2#3#738</t>
+  </si>
+  <si>
+    <t>1#2#3#739</t>
+  </si>
+  <si>
+    <t>1#2#3#740</t>
+  </si>
+  <si>
+    <t>1#2#3#741</t>
+  </si>
+  <si>
+    <t>1#2#3#742</t>
+  </si>
+  <si>
+    <t>1#2#3#743</t>
+  </si>
+  <si>
+    <t>1#2#3#744</t>
+  </si>
+  <si>
+    <t>1#2#3#745</t>
+  </si>
+  <si>
+    <t>1#2#3#746</t>
+  </si>
+  <si>
+    <t>1#2#3#747</t>
+  </si>
+  <si>
+    <t>1#2#3#748</t>
+  </si>
+  <si>
+    <t>1#2#3#749</t>
+  </si>
+  <si>
+    <t>1#2#3#750</t>
+  </si>
+  <si>
+    <t>1#2#3#751</t>
+  </si>
+  <si>
+    <t>1#2#3#752</t>
+  </si>
+  <si>
+    <t>1#2#3#753</t>
+  </si>
+  <si>
+    <t>1#2#3#754</t>
+  </si>
+  <si>
+    <t>1#2#3#755</t>
+  </si>
+  <si>
+    <t>1#2#3#756</t>
+  </si>
+  <si>
+    <t>1#2#3#757</t>
+  </si>
+  <si>
+    <t>1#2#3#758</t>
+  </si>
+  <si>
+    <t>1#2#3#759</t>
+  </si>
+  <si>
+    <t>1#2#3#760</t>
+  </si>
+  <si>
+    <t>1#2#3#761</t>
+  </si>
+  <si>
+    <t>1#2#3#762</t>
+  </si>
+  <si>
+    <t>1#2#3#763</t>
+  </si>
+  <si>
+    <t>1#2#3#764</t>
+  </si>
+  <si>
+    <t>1#2#3#765</t>
+  </si>
+  <si>
+    <t>1#2#3#766</t>
+  </si>
+  <si>
+    <t>1#2#3#767</t>
+  </si>
+  <si>
+    <t>1#2#3#768</t>
+  </si>
+  <si>
+    <t>1#2#3#769</t>
+  </si>
+  <si>
+    <t>1#2#3#770</t>
+  </si>
+  <si>
+    <t>1#2#3#771</t>
+  </si>
+  <si>
+    <t>1#2#3#772</t>
+  </si>
+  <si>
+    <t>1#2#3#773</t>
+  </si>
+  <si>
+    <t>1#2#3#774</t>
+  </si>
+  <si>
+    <t>1#2#3#775</t>
+  </si>
+  <si>
+    <t>1#2#3#776</t>
+  </si>
+  <si>
+    <t>1#2#3#777</t>
+  </si>
+  <si>
+    <t>1#2#3#778</t>
+  </si>
+  <si>
+    <t>1#2#3#779</t>
+  </si>
+  <si>
+    <t>1#2#3#780</t>
+  </si>
+  <si>
+    <t>1#2#3#781</t>
+  </si>
+  <si>
+    <t>1#2#3#782</t>
+  </si>
+  <si>
+    <t>1#2#3#783</t>
+  </si>
+  <si>
+    <t>1#2#3#784</t>
+  </si>
+  <si>
+    <t>1#2#3#785</t>
+  </si>
+  <si>
+    <t>1#2#3#786</t>
+  </si>
+  <si>
+    <t>1#2#3#787</t>
+  </si>
+  <si>
+    <t>1#2#3#788</t>
+  </si>
+  <si>
+    <t>1#2#3#789</t>
+  </si>
+  <si>
+    <t>1#2#3#790</t>
+  </si>
+  <si>
+    <t>1#2#3#791</t>
+  </si>
+  <si>
+    <t>1#2#3#792</t>
+  </si>
+  <si>
+    <t>1#2#3#793</t>
+  </si>
+  <si>
+    <t>1#2#3#794</t>
+  </si>
+  <si>
+    <t>1#2#3#795</t>
+  </si>
+  <si>
+    <t>1#2#3#796</t>
+  </si>
+  <si>
+    <t>1#2#3#797</t>
+  </si>
+  <si>
+    <t>1#2#3#798</t>
+  </si>
+  <si>
+    <t>1#2#3#799</t>
+  </si>
+  <si>
+    <t>1#2#3#800</t>
+  </si>
+  <si>
+    <t>1#2#3#801</t>
+  </si>
+  <si>
+    <t>1#2#3#802</t>
+  </si>
+  <si>
+    <t>1#2#3#803</t>
+  </si>
+  <si>
+    <t>1#2#3#804</t>
+  </si>
+  <si>
+    <t>1#2#3#805</t>
+  </si>
+  <si>
+    <t>1#2#3#806</t>
+  </si>
+  <si>
+    <t>1#2#3#807</t>
+  </si>
+  <si>
+    <t>1#2#3#808</t>
+  </si>
+  <si>
+    <t>1#2#3#809</t>
+  </si>
+  <si>
+    <t>1#2#3#810</t>
+  </si>
+  <si>
+    <t>1#2#3#811</t>
+  </si>
+  <si>
+    <t>1#2#3#812</t>
+  </si>
+  <si>
+    <t>1#2#3#813</t>
+  </si>
+  <si>
+    <t>1#2#3#814</t>
+  </si>
+  <si>
+    <t>1#2#3#815</t>
+  </si>
+  <si>
+    <t>1#2#3#816</t>
+  </si>
+  <si>
+    <t>1#2#3#817</t>
+  </si>
+  <si>
+    <t>1#2#3#818</t>
+  </si>
+  <si>
+    <t>1#2#3#819</t>
+  </si>
+  <si>
+    <t>1#2#3#820</t>
+  </si>
+  <si>
+    <t>1#2#3#821</t>
+  </si>
+  <si>
+    <t>1#2#3#822</t>
+  </si>
+  <si>
+    <t>1#2#3#823</t>
+  </si>
+  <si>
+    <t>1#2#3#824</t>
+  </si>
+  <si>
+    <t>1#2#3#825</t>
+  </si>
+  <si>
+    <t>1#2#3#826</t>
+  </si>
+  <si>
+    <t>1#2#3#827</t>
+  </si>
+  <si>
+    <t>1#2#3#828</t>
+  </si>
+  <si>
+    <t>1#2#3#829</t>
+  </si>
+  <si>
+    <t>1#2#3#830</t>
+  </si>
+  <si>
+    <t>1#2#3#831</t>
+  </si>
+  <si>
+    <t>1#2#3#832</t>
+  </si>
+  <si>
+    <t>1#2#3#833</t>
+  </si>
+  <si>
+    <t>1#2#3#834</t>
+  </si>
+  <si>
+    <t>1#2#3#835</t>
+  </si>
+  <si>
+    <t>1#2#3#836</t>
+  </si>
+  <si>
+    <t>1#2#3#837</t>
+  </si>
+  <si>
+    <t>1#2#3#838</t>
+  </si>
+  <si>
+    <t>1#2#3#839</t>
+  </si>
+  <si>
+    <t>1#2#3#840</t>
+  </si>
+  <si>
+    <t>1#2#3#841</t>
+  </si>
+  <si>
+    <t>1#2#3#842</t>
+  </si>
+  <si>
+    <t>1#2#3#843</t>
+  </si>
+  <si>
+    <t>1#2#3#844</t>
+  </si>
+  <si>
+    <t>1#2#3#845</t>
+  </si>
+  <si>
+    <t>1#2#3#846</t>
+  </si>
+  <si>
+    <t>1#2#3#847</t>
+  </si>
+  <si>
+    <t>1#2#3#848</t>
+  </si>
+  <si>
+    <t>1#2#3#849</t>
+  </si>
+  <si>
+    <t>1#2#3#850</t>
+  </si>
+  <si>
+    <t>1#2#3#851</t>
+  </si>
+  <si>
+    <t>1#2#3#852</t>
+  </si>
+  <si>
+    <t>1#2#3#853</t>
+  </si>
+  <si>
+    <t>1#2#3#854</t>
+  </si>
+  <si>
+    <t>1#2#3#855</t>
+  </si>
+  <si>
+    <t>1#2#3#856</t>
+  </si>
+  <si>
+    <t>1#2#3#857</t>
+  </si>
+  <si>
+    <t>1#2#3#858</t>
+  </si>
+  <si>
+    <t>1#2#3#859</t>
+  </si>
+  <si>
+    <t>1#2#3#860</t>
+  </si>
+  <si>
+    <t>1#2#3#861</t>
+  </si>
+  <si>
+    <t>1#2#3#862</t>
+  </si>
+  <si>
+    <t>1#2#3#863</t>
+  </si>
+  <si>
+    <t>1#2#3#864</t>
+  </si>
+  <si>
+    <t>1#2#3#865</t>
+  </si>
+  <si>
+    <t>1#2#3#866</t>
+  </si>
+  <si>
+    <t>1#2#3#867</t>
+  </si>
+  <si>
+    <t>1#2#3#868</t>
+  </si>
+  <si>
+    <t>1#2#3#869</t>
+  </si>
+  <si>
+    <t>1#2#3#870</t>
+  </si>
+  <si>
+    <t>1#2#3#871</t>
+  </si>
+  <si>
+    <t>1#2#3#872</t>
+  </si>
+  <si>
+    <t>1#2#3#873</t>
+  </si>
+  <si>
+    <t>1#2#3#874</t>
+  </si>
+  <si>
+    <t>1#2#3#875</t>
+  </si>
+  <si>
+    <t>1#2#3#876</t>
+  </si>
+  <si>
+    <t>1#2#3#877</t>
+  </si>
+  <si>
+    <t>1#2#3#878</t>
+  </si>
+  <si>
+    <t>1#2#3#879</t>
+  </si>
+  <si>
+    <t>1#2#3#880</t>
+  </si>
+  <si>
+    <t>1#2#3#881</t>
+  </si>
+  <si>
+    <t>1#2#3#882</t>
+  </si>
+  <si>
+    <t>1#2#3#883</t>
+  </si>
+  <si>
+    <t>1#2#3#884</t>
+  </si>
+  <si>
+    <t>1#2#3#885</t>
+  </si>
+  <si>
+    <t>1#2#3#886</t>
+  </si>
+  <si>
+    <t>1#2#3#887</t>
+  </si>
+  <si>
+    <t>1#2#3#888</t>
+  </si>
+  <si>
+    <t>1#2#3#889</t>
+  </si>
+  <si>
+    <t>1#2#3#890</t>
+  </si>
+  <si>
+    <t>1#2#3#891</t>
+  </si>
+  <si>
+    <t>1#2#3#892</t>
+  </si>
+  <si>
+    <t>1#2#3#893</t>
+  </si>
+  <si>
+    <t>1#2#3#894</t>
+  </si>
+  <si>
+    <t>1#2#3#895</t>
+  </si>
+  <si>
+    <t>1#2#3#896</t>
+  </si>
+  <si>
+    <t>1#2#3#897</t>
+  </si>
+  <si>
+    <t>1#2#3#898</t>
+  </si>
+  <si>
+    <t>1#2#3#899</t>
+  </si>
+  <si>
+    <t>1#2#3#900</t>
+  </si>
+  <si>
+    <t>1#2#3#901</t>
+  </si>
+  <si>
+    <t>1#2#3#902</t>
+  </si>
+  <si>
+    <t>1#2#3#903</t>
+  </si>
+  <si>
+    <t>1#2#3#904</t>
+  </si>
+  <si>
+    <t>1#2#3#905</t>
+  </si>
+  <si>
+    <t>1#2#3#906</t>
+  </si>
+  <si>
+    <t>1#2#3#907</t>
+  </si>
+  <si>
+    <t>1#2#3#908</t>
+  </si>
+  <si>
+    <t>1#2#3#909</t>
+  </si>
+  <si>
+    <t>1#2#3#910</t>
+  </si>
+  <si>
+    <t>1#2#3#911</t>
+  </si>
+  <si>
+    <t>1#2#3#912</t>
+  </si>
+  <si>
+    <t>1#2#3#913</t>
+  </si>
+  <si>
+    <t>1#2#3#914</t>
+  </si>
+  <si>
+    <t>1#2#3#915</t>
+  </si>
+  <si>
+    <t>1#2#3#916</t>
+  </si>
+  <si>
+    <t>1#2#3#917</t>
+  </si>
+  <si>
+    <t>1#2#3#918</t>
+  </si>
+  <si>
+    <t>1#2#3#919</t>
+  </si>
+  <si>
+    <t>1#2#3#920</t>
+  </si>
+  <si>
+    <t>1#2#3#921</t>
+  </si>
+  <si>
+    <t>1#2#3#922</t>
+  </si>
+  <si>
+    <t>1#2#3#923</t>
+  </si>
+  <si>
+    <t>1#2#3#924</t>
+  </si>
+  <si>
+    <t>1#2#3#925</t>
+  </si>
+  <si>
+    <t>1#2#3#926</t>
+  </si>
+  <si>
+    <t>1#2#3#927</t>
+  </si>
+  <si>
+    <t>1#2#3#928</t>
+  </si>
+  <si>
+    <t>1#2#3#929</t>
+  </si>
+  <si>
+    <t>1#2#3#930</t>
+  </si>
+  <si>
+    <t>1#2#3#931</t>
+  </si>
+  <si>
+    <t>1#2#3#932</t>
+  </si>
+  <si>
+    <t>1#2#3#933</t>
+  </si>
+  <si>
+    <t>1#2#3#934</t>
+  </si>
+  <si>
+    <t>1#2#3#935</t>
+  </si>
+  <si>
+    <t>1#2#3#936</t>
+  </si>
+  <si>
+    <t>1#2#3#937</t>
+  </si>
+  <si>
+    <t>1#2#3#938</t>
+  </si>
+  <si>
+    <t>1#2#3#939</t>
+  </si>
+  <si>
+    <t>1#2#3#940</t>
+  </si>
+  <si>
+    <t>1#2#3#941</t>
+  </si>
+  <si>
+    <t>1#2#3#942</t>
+  </si>
+  <si>
+    <t>1#2#3#943</t>
+  </si>
+  <si>
+    <t>1#2#3#944</t>
+  </si>
+  <si>
+    <t>1#2#3#945</t>
+  </si>
+  <si>
+    <t>1#2#3#946</t>
+  </si>
+  <si>
+    <t>1#2#3#947</t>
+  </si>
+  <si>
+    <t>1#2#3#948</t>
+  </si>
+  <si>
+    <t>1#2#3#949</t>
+  </si>
+  <si>
+    <t>1#2#3#950</t>
+  </si>
+  <si>
+    <t>1#2#3#951</t>
+  </si>
+  <si>
+    <t>1#2#3#952</t>
+  </si>
+  <si>
+    <t>1#2#3#953</t>
+  </si>
+  <si>
+    <t>1#2#3#954</t>
+  </si>
+  <si>
+    <t>1#2#3#955</t>
+  </si>
+  <si>
+    <t>1#2#3#956</t>
+  </si>
+  <si>
+    <t>1#2#3#957</t>
+  </si>
+  <si>
+    <t>1#2#3#958</t>
+  </si>
+  <si>
+    <t>1#2#3#959</t>
+  </si>
+  <si>
+    <t>1#2#3#960</t>
+  </si>
+  <si>
+    <t>1#2#3#961</t>
+  </si>
+  <si>
+    <t>1#2#3#962</t>
+  </si>
+  <si>
+    <t>1#2#3#963</t>
+  </si>
+  <si>
+    <t>1#2#3#964</t>
+  </si>
+  <si>
+    <t>1#2#3#965</t>
+  </si>
+  <si>
+    <t>1#2#3#966</t>
+  </si>
+  <si>
+    <t>1#2#3#967</t>
+  </si>
+  <si>
+    <t>1#2#3#968</t>
+  </si>
+  <si>
+    <t>1#2#3#969</t>
+  </si>
+  <si>
+    <t>1#2#3#970</t>
+  </si>
+  <si>
+    <t>1#2#3#971</t>
+  </si>
+  <si>
+    <t>1#2#3#972</t>
+  </si>
+  <si>
+    <t>1#2#3#973</t>
+  </si>
+  <si>
+    <t>1#2#3#974</t>
+  </si>
+  <si>
+    <t>1#2#3#975</t>
+  </si>
+  <si>
+    <t>1#2#3#976</t>
+  </si>
+  <si>
+    <t>1#2#3#977</t>
+  </si>
+  <si>
+    <t>1#2#3#978</t>
+  </si>
+  <si>
+    <t>1#2#3#979</t>
+  </si>
+  <si>
+    <t>1#2#3#980</t>
+  </si>
+  <si>
+    <t>1#2#3#981</t>
+  </si>
+  <si>
+    <t>1#2#3#982</t>
+  </si>
+  <si>
+    <t>1#2#3#983</t>
+  </si>
+  <si>
+    <t>1#2#3#984</t>
+  </si>
+  <si>
+    <t>1#2#3#985</t>
+  </si>
+  <si>
+    <t>1#2#3#986</t>
+  </si>
+  <si>
+    <t>1#2#3#987</t>
+  </si>
+  <si>
+    <t>1#2#3#988</t>
+  </si>
+  <si>
+    <t>1#2#3#989</t>
+  </si>
+  <si>
+    <t>1#2#3#990</t>
+  </si>
+  <si>
+    <t>1#2#3#991</t>
+  </si>
+  <si>
+    <t>1#2#3#992</t>
+  </si>
+  <si>
+    <t>1#2#3#993</t>
+  </si>
+  <si>
+    <t>1#2#3#994</t>
+  </si>
+  <si>
+    <t>1#2#3#995</t>
+  </si>
+  <si>
+    <t>1#2#3#996</t>
+  </si>
+  <si>
+    <t>1#2#3#997</t>
   </si>
 </sst>
 </file>
@@ -3061,8 +3061,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -3090,22 +3090,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3113,7 +3105,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3127,9 +3127,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3151,16 +3150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3168,22 +3159,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3196,15 +3196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3213,6 +3206,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3233,19 +3233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3263,25 +3269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,13 +3281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3311,13 +3293,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3335,31 +3377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,37 +3401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3421,17 +3421,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3460,6 +3456,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3471,35 +3476,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3518,10 +3494,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3539,130 +3539,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4059,7 +4059,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
